--- a/Copy of StarlingX On Clear RPM Build List (002).xlsx
+++ b/Copy of StarlingX On Clear RPM Build List (002).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dongqicx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuyongx\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5185,25 +5185,56 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5214,43 +5245,12 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5539,26 +5539,26 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D528" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H594" sqref="H594"/>
+      <selection pane="bottomRight" activeCell="D675" sqref="D675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
     <col min="11" max="11" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="95.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5608,11 +5608,11 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="82" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="67" t="s">
@@ -5621,13 +5621,13 @@
       <c r="D2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="86" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="66" t="s">
@@ -5656,18 +5656,18 @@
       <c r="AA2" s="27"/>
       <c r="AB2" s="27"/>
     </row>
-    <row r="3" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
+    <row r="3" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="67" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="66" t="s">
         <v>1241</v>
       </c>
@@ -5692,16 +5692,16 @@
       <c r="AA3" s="27"/>
       <c r="AB3" s="27"/>
     </row>
-    <row r="4" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
+    <row r="4" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67" t="s">
         <v>784</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="66" t="s">
         <v>1241</v>
       </c>
@@ -5726,16 +5726,16 @@
       <c r="AA4" s="27"/>
       <c r="AB4" s="27"/>
     </row>
-    <row r="5" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
+    <row r="5" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="67"/>
       <c r="D5" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="66" t="s">
         <v>1241</v>
       </c>
@@ -5760,24 +5760,24 @@
       <c r="AA5" s="27"/>
       <c r="AB5" s="27"/>
     </row>
-    <row r="6" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82" t="s">
+    <row r="6" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="91"/>
+      <c r="B6" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="77" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="27" t="s">
@@ -5806,16 +5806,16 @@
       <c r="AA6" s="27"/>
       <c r="AB6" s="27"/>
     </row>
-    <row r="7" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
+    <row r="7" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="42" t="s">
         <v>781</v>
       </c>
@@ -5840,16 +5840,16 @@
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
     </row>
-    <row r="8" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
+    <row r="8" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="42" t="s">
         <v>781</v>
       </c>
@@ -5874,16 +5874,16 @@
       <c r="AA8" s="27"/>
       <c r="AB8" s="27"/>
     </row>
-    <row r="9" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
+    <row r="9" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="42" t="s">
         <v>781</v>
       </c>
@@ -5908,16 +5908,16 @@
       <c r="AA9" s="27"/>
       <c r="AB9" s="27"/>
     </row>
-    <row r="10" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
+    <row r="10" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="42" t="s">
         <v>781</v>
       </c>
@@ -5942,16 +5942,16 @@
       <c r="AA10" s="27"/>
       <c r="AB10" s="27"/>
     </row>
-    <row r="11" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
+    <row r="11" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="42" t="s">
         <v>781</v>
       </c>
@@ -5976,22 +5976,22 @@
       <c r="AA11" s="27"/>
       <c r="AB11" s="27"/>
     </row>
-    <row r="12" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="79" t="s">
+    <row r="12" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="90"/>
+      <c r="B12" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="82" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6018,16 +6018,16 @@
       <c r="AA12" s="27"/>
       <c r="AB12" s="27"/>
     </row>
-    <row r="13" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
+    <row r="13" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6052,16 +6052,16 @@
       <c r="AA13" s="27"/>
       <c r="AB13" s="27"/>
     </row>
-    <row r="14" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
+    <row r="14" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6086,16 +6086,16 @@
       <c r="AA14" s="27"/>
       <c r="AB14" s="27"/>
     </row>
-    <row r="15" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
+    <row r="15" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6120,16 +6120,16 @@
       <c r="AA15" s="27"/>
       <c r="AB15" s="27"/>
     </row>
-    <row r="16" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+    <row r="16" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6154,9 +6154,9 @@
       <c r="AA16" s="27"/>
       <c r="AB16" s="27"/>
     </row>
-    <row r="17" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82" t="s">
+    <row r="17" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="91"/>
+      <c r="B17" s="76" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="27" t="s">
@@ -6165,13 +6165,13 @@
       <c r="D17" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="95" t="s">
         <v>49</v>
       </c>
       <c r="H17" s="27" t="s">
@@ -6200,18 +6200,18 @@
       <c r="AA17" s="27"/>
       <c r="AB17" s="27"/>
     </row>
-    <row r="18" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
+    <row r="18" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="27" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
       <c r="H18" s="42" t="s">
         <v>781</v>
       </c>
@@ -6236,18 +6236,18 @@
       <c r="AA18" s="27"/>
       <c r="AB18" s="27"/>
     </row>
-    <row r="19" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
+    <row r="19" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
       <c r="H19" s="42" t="s">
         <v>781</v>
       </c>
@@ -6272,18 +6272,18 @@
       <c r="AA19" s="27"/>
       <c r="AB19" s="27"/>
     </row>
-    <row r="20" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
+    <row r="20" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="27" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
       <c r="H20" s="42" t="s">
         <v>781</v>
       </c>
@@ -6308,18 +6308,18 @@
       <c r="AA20" s="27"/>
       <c r="AB20" s="27"/>
     </row>
-    <row r="21" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81"/>
+    <row r="21" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="27" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
       <c r="H21" s="42" t="s">
         <v>781</v>
       </c>
@@ -6344,16 +6344,16 @@
       <c r="AA21" s="27"/>
       <c r="AB21" s="27"/>
     </row>
-    <row r="22" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
+    <row r="22" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
       <c r="H22" s="42" t="s">
         <v>781</v>
       </c>
@@ -6378,16 +6378,16 @@
       <c r="AA22" s="27"/>
       <c r="AB22" s="27"/>
     </row>
-    <row r="23" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
+    <row r="23" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
       <c r="H23" s="42" t="s">
         <v>781</v>
       </c>
@@ -6412,9 +6412,9 @@
       <c r="AA23" s="27"/>
       <c r="AB23" s="27"/>
     </row>
-    <row r="24" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="79" t="s">
+    <row r="24" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="90"/>
+      <c r="B24" s="82" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="67" t="s">
@@ -6423,13 +6423,13 @@
       <c r="D24" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="85" t="s">
+      <c r="E24" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="79" t="s">
+      <c r="F24" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="86" t="s">
+      <c r="G24" s="97" t="s">
         <v>65</v>
       </c>
       <c r="H24" s="67" t="s">
@@ -6458,18 +6458,18 @@
       <c r="AA24" s="27"/>
       <c r="AB24" s="27"/>
     </row>
-    <row r="25" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
+    <row r="25" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="67" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6494,18 +6494,18 @@
       <c r="AA25" s="27"/>
       <c r="AB25" s="27"/>
     </row>
-    <row r="26" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
+    <row r="26" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="67" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
       <c r="H26" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6530,16 +6530,16 @@
       <c r="AA26" s="27"/>
       <c r="AB26" s="27"/>
     </row>
-    <row r="27" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
+    <row r="27" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="90"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6564,22 +6564,22 @@
       <c r="AA27" s="27"/>
       <c r="AB27" s="27"/>
     </row>
-    <row r="28" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="79" t="s">
+    <row r="28" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="90"/>
+      <c r="B28" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="79" t="s">
+      <c r="C28" s="82" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
       <c r="H28" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6606,16 +6606,16 @@
       <c r="AA28" s="27"/>
       <c r="AB28" s="27"/>
     </row>
-    <row r="29" spans="1:28" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
+    <row r="29" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
       <c r="H29" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6641,15 +6641,15 @@
       <c r="AB29" s="27"/>
     </row>
     <row r="30" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6675,15 +6675,15 @@
       <c r="AB30" s="27"/>
     </row>
     <row r="31" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6709,15 +6709,15 @@
       <c r="AB31" s="27"/>
     </row>
     <row r="32" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="67" t="s">
         <v>1241</v>
       </c>
@@ -6742,8 +6742,8 @@
       <c r="AA32" s="27"/>
       <c r="AB32" s="27"/>
     </row>
-    <row r="33" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="91" t="s">
+    <row r="33" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="94" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -6787,7 +6787,7 @@
       <c r="AB33" s="27"/>
     </row>
     <row r="34" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27" t="s">
         <v>82</v>
@@ -6820,9 +6820,9 @@
       <c r="AA34" s="27"/>
       <c r="AB34" s="27"/>
     </row>
-    <row r="35" spans="1:28" s="30" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="82" t="s">
+    <row r="35" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="91"/>
+      <c r="B35" s="76" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="27" t="s">
@@ -6831,13 +6831,13 @@
       <c r="D35" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="89" t="s">
+      <c r="E35" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="82" t="s">
+      <c r="F35" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="80" t="s">
+      <c r="G35" s="77" t="s">
         <v>88</v>
       </c>
       <c r="H35" s="27" t="s">
@@ -6867,17 +6867,17 @@
       <c r="AB35" s="27"/>
     </row>
     <row r="36" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="27" t="s">
         <v>89</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
       <c r="H36" s="42" t="s">
         <v>781</v>
       </c>
@@ -6903,17 +6903,17 @@
       <c r="AB36" s="27"/>
     </row>
     <row r="37" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="81"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="27" t="s">
         <v>91</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
       <c r="H37" s="42" t="s">
         <v>781</v>
       </c>
@@ -6939,17 +6939,17 @@
       <c r="AB37" s="27"/>
     </row>
     <row r="38" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="27" t="s">
         <v>93</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
       <c r="H38" s="42" t="s">
         <v>781</v>
       </c>
@@ -6975,15 +6975,15 @@
       <c r="AB38" s="27"/>
     </row>
     <row r="39" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
       <c r="H39" s="42" t="s">
         <v>781</v>
       </c>
@@ -7009,7 +7009,7 @@
       <c r="AB39" s="27"/>
     </row>
     <row r="40" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="27" t="s">
         <v>96</v>
       </c>
@@ -7044,8 +7044,8 @@
       <c r="AA40" s="27"/>
       <c r="AB40" s="27"/>
     </row>
-    <row r="41" spans="1:28" s="30" customFormat="1" ht="290.39999999999998" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
+    <row r="41" spans="1:28" s="30" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="91"/>
       <c r="B41" s="27" t="s">
         <v>98</v>
       </c>
@@ -7091,7 +7091,7 @@
       <c r="AB41" s="27"/>
     </row>
     <row r="42" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27" t="s">
         <v>100</v>
@@ -7124,8 +7124,8 @@
       <c r="AA42" s="27"/>
       <c r="AB42" s="27"/>
     </row>
-    <row r="43" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
+    <row r="43" spans="1:28" s="30" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="91"/>
       <c r="B43" s="27" t="s">
         <v>101</v>
       </c>
@@ -7208,16 +7208,16 @@
     </row>
     <row r="45" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="79" t="s">
+      <c r="C45" s="82" t="s">
         <v>106</v>
       </c>
       <c r="D45" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="83" t="s">
         <v>108</v>
       </c>
       <c r="F45" s="49"/>
@@ -7248,12 +7248,12 @@
     </row>
     <row r="46" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="49"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="77"/>
+      <c r="E46" s="90"/>
       <c r="F46" s="49"/>
       <c r="G46" s="49"/>
       <c r="H46" s="49" t="s">
@@ -7282,12 +7282,12 @@
     </row>
     <row r="47" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
       <c r="D47" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="77"/>
+      <c r="E47" s="90"/>
       <c r="F47" s="49"/>
       <c r="G47" s="49"/>
       <c r="H47" s="49" t="s">
@@ -7316,12 +7316,12 @@
     </row>
     <row r="48" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="49"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
       <c r="D48" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="77"/>
+      <c r="E48" s="90"/>
       <c r="F48" s="49"/>
       <c r="G48" s="49"/>
       <c r="H48" s="49" t="s">
@@ -7350,12 +7350,12 @@
     </row>
     <row r="49" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="49"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
       <c r="D49" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="E49" s="77"/>
+      <c r="E49" s="90"/>
       <c r="F49" s="49"/>
       <c r="G49" s="49"/>
       <c r="H49" s="49" t="s">
@@ -7384,16 +7384,16 @@
     </row>
     <row r="50" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="49"/>
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="79" t="s">
+      <c r="C50" s="82" t="s">
         <v>114</v>
       </c>
       <c r="D50" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="78" t="s">
+      <c r="E50" s="83" t="s">
         <v>116</v>
       </c>
       <c r="F50" s="49"/>
@@ -7424,12 +7424,12 @@
     </row>
     <row r="51" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="49"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="77"/>
+      <c r="E51" s="90"/>
       <c r="F51" s="49"/>
       <c r="G51" s="49"/>
       <c r="H51" s="49" t="s">
@@ -7458,12 +7458,12 @@
     </row>
     <row r="52" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="49"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="77"/>
+      <c r="E52" s="90"/>
       <c r="F52" s="49"/>
       <c r="G52" s="49"/>
       <c r="H52" s="49" t="s">
@@ -7492,12 +7492,12 @@
     </row>
     <row r="53" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="49"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="77"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
       <c r="H53" s="49" t="s">
@@ -7526,16 +7526,16 @@
     </row>
     <row r="54" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="49"/>
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="82" t="s">
         <v>121</v>
       </c>
       <c r="D54" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="78" t="s">
+      <c r="E54" s="83" t="s">
         <v>123</v>
       </c>
       <c r="F54" s="49"/>
@@ -7566,12 +7566,12 @@
     </row>
     <row r="55" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="49"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
       <c r="D55" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="77"/>
+      <c r="E55" s="90"/>
       <c r="F55" s="49"/>
       <c r="G55" s="49"/>
       <c r="H55" s="49" t="s">
@@ -7600,12 +7600,12 @@
     </row>
     <row r="56" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="49"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
       <c r="D56" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="77"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="49"/>
       <c r="G56" s="49"/>
       <c r="H56" s="49" t="s">
@@ -7634,12 +7634,12 @@
     </row>
     <row r="57" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="49"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="E57" s="77"/>
+      <c r="E57" s="90"/>
       <c r="F57" s="49"/>
       <c r="G57" s="49"/>
       <c r="H57" s="49" t="s">
@@ -7668,16 +7668,16 @@
     </row>
     <row r="58" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="49"/>
-      <c r="B58" s="79" t="s">
+      <c r="B58" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="82" t="s">
         <v>128</v>
       </c>
       <c r="D58" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="79" t="s">
+      <c r="E58" s="82" t="s">
         <v>130</v>
       </c>
       <c r="F58" s="49"/>
@@ -7708,12 +7708,12 @@
     </row>
     <row r="59" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="49"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="77"/>
+      <c r="E59" s="90"/>
       <c r="F59" s="49"/>
       <c r="G59" s="49"/>
       <c r="H59" s="49" t="s">
@@ -7742,12 +7742,12 @@
     </row>
     <row r="60" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="49"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
       <c r="D60" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="77"/>
+      <c r="E60" s="90"/>
       <c r="F60" s="49"/>
       <c r="G60" s="49"/>
       <c r="H60" s="49" t="s">
@@ -7776,12 +7776,12 @@
     </row>
     <row r="61" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="49"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="90"/>
       <c r="D61" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="E61" s="77"/>
+      <c r="E61" s="90"/>
       <c r="F61" s="49"/>
       <c r="G61" s="49"/>
       <c r="H61" s="49" t="s">
@@ -7810,12 +7810,12 @@
     </row>
     <row r="62" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="49"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="77"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
       <c r="D62" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="77"/>
+      <c r="E62" s="90"/>
       <c r="F62" s="49"/>
       <c r="G62" s="49"/>
       <c r="H62" s="49" t="s">
@@ -7844,16 +7844,16 @@
     </row>
     <row r="63" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="49"/>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="82" t="s">
         <v>136</v>
       </c>
       <c r="D63" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E63" s="76" t="s">
+      <c r="E63" s="86" t="s">
         <v>138</v>
       </c>
       <c r="F63" s="49"/>
@@ -7884,12 +7884,12 @@
     </row>
     <row r="64" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="49"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="77"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="E64" s="77"/>
+      <c r="E64" s="90"/>
       <c r="F64" s="49"/>
       <c r="G64" s="49"/>
       <c r="H64" s="49" t="s">
@@ -7918,12 +7918,12 @@
     </row>
     <row r="65" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="49"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="77"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="77"/>
+      <c r="E65" s="90"/>
       <c r="F65" s="49"/>
       <c r="G65" s="49"/>
       <c r="H65" s="49" t="s">
@@ -7952,12 +7952,12 @@
     </row>
     <row r="66" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="49"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="77"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="E66" s="77"/>
+      <c r="E66" s="90"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49"/>
       <c r="H66" s="49" t="s">
@@ -7986,12 +7986,12 @@
     </row>
     <row r="67" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="49"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="77"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
       <c r="D67" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="77"/>
+      <c r="E67" s="90"/>
       <c r="F67" s="49"/>
       <c r="G67" s="49"/>
       <c r="H67" s="49" t="s">
@@ -8392,7 +8392,7 @@
       <c r="AA78" s="27"/>
       <c r="AB78" s="27"/>
     </row>
-    <row r="79" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A79" s="55"/>
       <c r="B79" s="67" t="s">
         <v>157</v>
@@ -8436,16 +8436,16 @@
       <c r="A80" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="82" t="s">
+      <c r="B80" s="76" t="s">
         <v>1005</v>
       </c>
       <c r="C80" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="87" t="s">
+      <c r="D80" s="78" t="s">
         <v>1006</v>
       </c>
-      <c r="E80" s="87" t="s">
+      <c r="E80" s="78" t="s">
         <v>1007</v>
       </c>
       <c r="F80" s="27"/>
@@ -8476,12 +8476,12 @@
     </row>
     <row r="81" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="27"/>
-      <c r="B81" s="82"/>
+      <c r="B81" s="76"/>
       <c r="C81" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D81" s="83"/>
-      <c r="E81" s="82"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="76"/>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
       <c r="H81" s="27" t="s">
@@ -8510,12 +8510,12 @@
     </row>
     <row r="82" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="27"/>
-      <c r="B82" s="82"/>
+      <c r="B82" s="76"/>
       <c r="C82" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="83"/>
-      <c r="E82" s="82"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="76"/>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27" t="s">
@@ -8542,7 +8542,7 @@
       <c r="AA82" s="27"/>
       <c r="AB82" s="27"/>
     </row>
-    <row r="83" spans="1:28" s="30" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" s="30" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>163</v>
       </c>
@@ -8555,10 +8555,10 @@
       <c r="D83" s="31" t="s">
         <v>1008</v>
       </c>
-      <c r="E83" s="80" t="s">
+      <c r="E83" s="77" t="s">
         <v>1009</v>
       </c>
-      <c r="F83" s="80" t="s">
+      <c r="F83" s="77" t="s">
         <v>1010</v>
       </c>
       <c r="G83" s="27"/>
@@ -8595,8 +8595,8 @@
       <c r="D84" s="27" t="s">
         <v>1011</v>
       </c>
-      <c r="E84" s="80"/>
-      <c r="F84" s="82"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="76"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27" t="s">
         <v>781</v>
@@ -8631,8 +8631,8 @@
       <c r="D85" s="27" t="s">
         <v>1012</v>
       </c>
-      <c r="E85" s="80"/>
-      <c r="F85" s="82"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="76"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27" t="s">
         <v>781</v>
@@ -8658,11 +8658,11 @@
       <c r="AA85" s="27"/>
       <c r="AB85" s="27"/>
     </row>
-    <row r="86" spans="1:28" s="30" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" s="30" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A86" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="B86" s="93" t="s">
+      <c r="B86" s="81" t="s">
         <v>275</v>
       </c>
       <c r="C86" s="92" t="s">
@@ -8702,9 +8702,9 @@
       <c r="AA86" s="27"/>
       <c r="AB86" s="27"/>
     </row>
-    <row r="87" spans="1:28" s="30" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="55"/>
-      <c r="B87" s="79"/>
+      <c r="B87" s="82"/>
       <c r="C87" s="92"/>
       <c r="D87" s="60" t="s">
         <v>1014</v>
@@ -8736,9 +8736,9 @@
       <c r="AA87" s="27"/>
       <c r="AB87" s="27"/>
     </row>
-    <row r="88" spans="1:28" s="30" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="55"/>
-      <c r="B88" s="79"/>
+      <c r="B88" s="82"/>
       <c r="C88" s="92"/>
       <c r="D88" s="60" t="s">
         <v>1015</v>
@@ -8770,9 +8770,9 @@
       <c r="AA88" s="27"/>
       <c r="AB88" s="27"/>
     </row>
-    <row r="89" spans="1:28" s="30" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="55"/>
-      <c r="B89" s="79"/>
+      <c r="B89" s="82"/>
       <c r="C89" s="92"/>
       <c r="D89" s="60" t="s">
         <v>1016</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="90" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="49"/>
-      <c r="B90" s="79"/>
+      <c r="B90" s="82"/>
       <c r="C90" s="49" t="s">
         <v>169</v>
       </c>
@@ -8840,9 +8840,9 @@
       <c r="AA90" s="27"/>
       <c r="AB90" s="27"/>
     </row>
-    <row r="91" spans="1:28" s="30" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="49"/>
-      <c r="B91" s="79" t="s">
+      <c r="B91" s="82" t="s">
         <v>274</v>
       </c>
       <c r="C91" s="49" t="s">
@@ -8851,10 +8851,10 @@
       <c r="D91" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="E91" s="78" t="s">
+      <c r="E91" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="F91" s="79" t="s">
+      <c r="F91" s="82" t="s">
         <v>29</v>
       </c>
       <c r="G91" s="49"/>
@@ -8882,17 +8882,17 @@
       <c r="AA91" s="27"/>
       <c r="AB91" s="27"/>
     </row>
-    <row r="92" spans="1:28" s="30" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="49"/>
-      <c r="B92" s="79"/>
+      <c r="B92" s="82"/>
       <c r="C92" s="50" t="s">
         <v>171</v>
       </c>
       <c r="D92" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="E92" s="78"/>
-      <c r="F92" s="79"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="82"/>
       <c r="G92" s="49"/>
       <c r="H92" s="49" t="s">
         <v>1241</v>
@@ -8918,9 +8918,9 @@
       <c r="AA92" s="27"/>
       <c r="AB92" s="27"/>
     </row>
-    <row r="93" spans="1:28" s="30" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="49"/>
-      <c r="B93" s="93" t="s">
+      <c r="B93" s="81" t="s">
         <v>273</v>
       </c>
       <c r="C93" s="49" t="s">
@@ -8929,10 +8929,10 @@
       <c r="D93" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="E93" s="78" t="s">
+      <c r="E93" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="F93" s="79" t="s">
+      <c r="F93" s="82" t="s">
         <v>29</v>
       </c>
       <c r="G93" s="49"/>
@@ -8960,17 +8960,17 @@
       <c r="AA93" s="27"/>
       <c r="AB93" s="27"/>
     </row>
-    <row r="94" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="49"/>
-      <c r="B94" s="93"/>
+      <c r="B94" s="81"/>
       <c r="C94" s="49" t="s">
         <v>173</v>
       </c>
       <c r="D94" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="E94" s="78"/>
-      <c r="F94" s="79"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="82"/>
       <c r="G94" s="49"/>
       <c r="H94" s="49" t="s">
         <v>1241</v>
@@ -8996,17 +8996,17 @@
       <c r="AA94" s="27"/>
       <c r="AB94" s="27"/>
     </row>
-    <row r="95" spans="1:28" s="30" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="49"/>
-      <c r="B95" s="93"/>
+      <c r="B95" s="81"/>
       <c r="C95" s="49" t="s">
         <v>174</v>
       </c>
       <c r="D95" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="E95" s="78"/>
-      <c r="F95" s="79"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="82"/>
       <c r="G95" s="49"/>
       <c r="H95" s="49" t="s">
         <v>1241</v>
@@ -9032,17 +9032,17 @@
       <c r="AA95" s="27"/>
       <c r="AB95" s="27"/>
     </row>
-    <row r="96" spans="1:28" s="30" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="49"/>
-      <c r="B96" s="93"/>
+      <c r="B96" s="81"/>
       <c r="C96" s="49" t="s">
         <v>175</v>
       </c>
       <c r="D96" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="E96" s="78"/>
-      <c r="F96" s="79"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="82"/>
       <c r="G96" s="49"/>
       <c r="H96" s="49" t="s">
         <v>1241</v>
@@ -9070,19 +9070,19 @@
     </row>
     <row r="97" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="49"/>
-      <c r="B97" s="79" t="s">
+      <c r="B97" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="C97" s="79" t="s">
+      <c r="C97" s="82" t="s">
         <v>176</v>
       </c>
       <c r="D97" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="E97" s="78" t="s">
+      <c r="E97" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="F97" s="79" t="s">
+      <c r="F97" s="82" t="s">
         <v>29</v>
       </c>
       <c r="G97" s="49"/>
@@ -9112,13 +9112,13 @@
     </row>
     <row r="98" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="49"/>
-      <c r="B98" s="79"/>
-      <c r="C98" s="79"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="82"/>
       <c r="D98" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
       <c r="G98" s="49"/>
       <c r="H98" s="49" t="s">
         <v>1241</v>
@@ -9146,13 +9146,13 @@
     </row>
     <row r="99" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="49"/>
-      <c r="B99" s="79"/>
-      <c r="C99" s="79"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="82"/>
       <c r="D99" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="82"/>
       <c r="G99" s="49"/>
       <c r="H99" s="49" t="s">
         <v>1241</v>
@@ -9180,19 +9180,19 @@
     </row>
     <row r="100" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="49"/>
-      <c r="B100" s="93" t="s">
+      <c r="B100" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="C100" s="79" t="s">
+      <c r="C100" s="82" t="s">
         <v>177</v>
       </c>
       <c r="D100" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="E100" s="78" t="s">
+      <c r="E100" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="F100" s="79" t="s">
+      <c r="F100" s="82" t="s">
         <v>29</v>
       </c>
       <c r="G100" s="49"/>
@@ -9222,13 +9222,13 @@
     </row>
     <row r="101" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="49"/>
-      <c r="B101" s="79"/>
-      <c r="C101" s="79"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="82"/>
       <c r="D101" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="E101" s="79"/>
-      <c r="F101" s="79"/>
+      <c r="E101" s="82"/>
+      <c r="F101" s="82"/>
       <c r="G101" s="49"/>
       <c r="H101" s="49" t="s">
         <v>1241</v>
@@ -9256,13 +9256,13 @@
     </row>
     <row r="102" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="49"/>
-      <c r="B102" s="79"/>
-      <c r="C102" s="79"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="82"/>
       <c r="D102" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="E102" s="79"/>
-      <c r="F102" s="79"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
       <c r="G102" s="49"/>
       <c r="H102" s="49" t="s">
         <v>1241</v>
@@ -9290,19 +9290,19 @@
     </row>
     <row r="103" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="49"/>
-      <c r="B103" s="93" t="s">
+      <c r="B103" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="C103" s="79" t="s">
+      <c r="C103" s="82" t="s">
         <v>178</v>
       </c>
       <c r="D103" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="E103" s="78" t="s">
+      <c r="E103" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="F103" s="79" t="s">
+      <c r="F103" s="82" t="s">
         <v>29</v>
       </c>
       <c r="G103" s="49"/>
@@ -9332,13 +9332,13 @@
     </row>
     <row r="104" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="49"/>
-      <c r="B104" s="79"/>
-      <c r="C104" s="79"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="82"/>
       <c r="D104" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
       <c r="G104" s="49"/>
       <c r="H104" s="49" t="s">
         <v>1241</v>
@@ -9366,13 +9366,13 @@
     </row>
     <row r="105" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="49"/>
-      <c r="B105" s="79"/>
-      <c r="C105" s="79"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="82"/>
       <c r="D105" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="E105" s="79"/>
-      <c r="F105" s="79"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
       <c r="G105" s="49"/>
       <c r="H105" s="49" t="s">
         <v>1241</v>
@@ -9402,7 +9402,7 @@
       <c r="A106" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="B106" s="79" t="s">
+      <c r="B106" s="82" t="s">
         <v>299</v>
       </c>
       <c r="C106" s="67" t="s">
@@ -9411,10 +9411,10 @@
       <c r="D106" s="67" t="s">
         <v>1017</v>
       </c>
-      <c r="E106" s="96" t="s">
+      <c r="E106" s="87" t="s">
         <v>856</v>
       </c>
-      <c r="F106" s="79" t="s">
+      <c r="F106" s="82" t="s">
         <v>1018</v>
       </c>
       <c r="G106" s="67"/>
@@ -9444,15 +9444,15 @@
     </row>
     <row r="107" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="67"/>
-      <c r="B107" s="79"/>
+      <c r="B107" s="82"/>
       <c r="C107" s="67" t="s">
         <v>778</v>
       </c>
       <c r="D107" s="67" t="s">
         <v>1019</v>
       </c>
-      <c r="E107" s="96"/>
-      <c r="F107" s="79"/>
+      <c r="E107" s="87"/>
+      <c r="F107" s="82"/>
       <c r="G107" s="67"/>
       <c r="H107" s="67" t="s">
         <v>1241</v>
@@ -9480,15 +9480,15 @@
     </row>
     <row r="108" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="67"/>
-      <c r="B108" s="79"/>
+      <c r="B108" s="82"/>
       <c r="C108" s="67" t="s">
         <v>779</v>
       </c>
       <c r="D108" s="67" t="s">
         <v>1020</v>
       </c>
-      <c r="E108" s="96"/>
-      <c r="F108" s="79"/>
+      <c r="E108" s="87"/>
+      <c r="F108" s="82"/>
       <c r="G108" s="67"/>
       <c r="H108" s="67" t="s">
         <v>1241</v>
@@ -9514,12 +9514,12 @@
       <c r="AA108" s="27"/>
       <c r="AB108" s="27"/>
     </row>
-    <row r="109" spans="1:28" s="30" customFormat="1" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" s="30" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A109" s="27"/>
-      <c r="B109" s="82" t="s">
+      <c r="B109" s="76" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="83" t="s">
+      <c r="C109" s="79" t="s">
         <v>751</v>
       </c>
       <c r="D109" s="27" t="s">
@@ -9558,8 +9558,8 @@
     </row>
     <row r="110" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="27"/>
-      <c r="B110" s="82"/>
-      <c r="C110" s="82"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="76"/>
       <c r="D110" s="27" t="s">
         <v>312</v>
       </c>
@@ -9592,8 +9592,8 @@
     </row>
     <row r="111" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="27"/>
-      <c r="B111" s="82"/>
-      <c r="C111" s="82"/>
+      <c r="B111" s="76"/>
+      <c r="C111" s="76"/>
       <c r="D111" s="27" t="s">
         <v>313</v>
       </c>
@@ -9626,8 +9626,8 @@
     </row>
     <row r="112" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="27"/>
-      <c r="B112" s="82"/>
-      <c r="C112" s="82"/>
+      <c r="B112" s="76"/>
+      <c r="C112" s="76"/>
       <c r="D112" s="27" t="s">
         <v>314</v>
       </c>
@@ -9660,8 +9660,8 @@
     </row>
     <row r="113" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="27"/>
-      <c r="B113" s="82"/>
-      <c r="C113" s="82"/>
+      <c r="B113" s="76"/>
+      <c r="C113" s="76"/>
       <c r="D113" s="27" t="s">
         <v>315</v>
       </c>
@@ -9692,12 +9692,12 @@
       <c r="AA113" s="27"/>
       <c r="AB113" s="27"/>
     </row>
-    <row r="114" spans="1:28" s="30" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A114" s="27"/>
-      <c r="B114" s="82" t="s">
+      <c r="B114" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="C114" s="82" t="s">
+      <c r="C114" s="76" t="s">
         <v>180</v>
       </c>
       <c r="D114" s="27" t="s">
@@ -9738,8 +9738,8 @@
     </row>
     <row r="115" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="27"/>
-      <c r="B115" s="82"/>
-      <c r="C115" s="82"/>
+      <c r="B115" s="76"/>
+      <c r="C115" s="76"/>
       <c r="D115" s="27" t="s">
         <v>318</v>
       </c>
@@ -9772,8 +9772,8 @@
     </row>
     <row r="116" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="27"/>
-      <c r="B116" s="82"/>
-      <c r="C116" s="82"/>
+      <c r="B116" s="76"/>
+      <c r="C116" s="76"/>
       <c r="D116" s="27" t="s">
         <v>841</v>
       </c>
@@ -9806,8 +9806,8 @@
     </row>
     <row r="117" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="27"/>
-      <c r="B117" s="82"/>
-      <c r="C117" s="82"/>
+      <c r="B117" s="76"/>
+      <c r="C117" s="76"/>
       <c r="D117" s="27" t="s">
         <v>319</v>
       </c>
@@ -9874,7 +9874,7 @@
       <c r="AA118" s="27"/>
       <c r="AB118" s="27"/>
     </row>
-    <row r="119" spans="1:28" s="30" customFormat="1" ht="290.39999999999998" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A119" s="55" t="s">
         <v>182</v>
       </c>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="120" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="49"/>
-      <c r="B120" s="94" t="s">
+      <c r="B120" s="88" t="s">
         <v>1027</v>
       </c>
       <c r="C120" s="49" t="s">
@@ -9958,7 +9958,7 @@
     </row>
     <row r="121" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="49"/>
-      <c r="B121" s="95"/>
+      <c r="B121" s="89"/>
       <c r="C121" s="49" t="s">
         <v>333</v>
       </c>
@@ -9992,7 +9992,7 @@
     </row>
     <row r="122" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="49"/>
-      <c r="B122" s="95"/>
+      <c r="B122" s="89"/>
       <c r="C122" s="49" t="s">
         <v>334</v>
       </c>
@@ -10060,9 +10060,9 @@
       <c r="AA123" s="27"/>
       <c r="AB123" s="27"/>
     </row>
-    <row r="124" spans="1:28" s="30" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" s="30" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A124" s="49"/>
-      <c r="B124" s="93" t="s">
+      <c r="B124" s="81" t="s">
         <v>1029</v>
       </c>
       <c r="C124" s="49" t="s">
@@ -10071,10 +10071,10 @@
       <c r="D124" s="51" t="s">
         <v>1030</v>
       </c>
-      <c r="E124" s="78" t="s">
+      <c r="E124" s="83" t="s">
         <v>1031</v>
       </c>
-      <c r="F124" s="93" t="s">
+      <c r="F124" s="81" t="s">
         <v>1025</v>
       </c>
       <c r="G124" s="49"/>
@@ -10106,15 +10106,15 @@
     </row>
     <row r="125" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="49"/>
-      <c r="B125" s="79"/>
+      <c r="B125" s="82"/>
       <c r="C125" s="49" t="s">
         <v>337</v>
       </c>
       <c r="D125" s="50" t="s">
         <v>1033</v>
       </c>
-      <c r="E125" s="78"/>
-      <c r="F125" s="93"/>
+      <c r="E125" s="83"/>
+      <c r="F125" s="81"/>
       <c r="G125" s="49"/>
       <c r="H125" s="49" t="s">
         <v>1241</v>
@@ -10140,7 +10140,7 @@
       <c r="AA125" s="27"/>
       <c r="AB125" s="27"/>
     </row>
-    <row r="126" spans="1:28" s="30" customFormat="1" ht="343.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A126" s="49"/>
       <c r="B126" s="50" t="s">
         <v>1034</v>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="127" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="27"/>
-      <c r="B127" s="83" t="s">
+      <c r="B127" s="79" t="s">
         <v>1038</v>
       </c>
       <c r="C127" s="34" t="s">
@@ -10222,7 +10222,7 @@
     </row>
     <row r="128" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="27"/>
-      <c r="B128" s="82"/>
+      <c r="B128" s="76"/>
       <c r="C128" s="34" t="s">
         <v>340</v>
       </c>
@@ -10256,7 +10256,7 @@
     </row>
     <row r="129" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="27"/>
-      <c r="B129" s="82"/>
+      <c r="B129" s="76"/>
       <c r="C129" s="34" t="s">
         <v>341</v>
       </c>
@@ -10290,7 +10290,7 @@
     </row>
     <row r="130" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="27"/>
-      <c r="B130" s="82"/>
+      <c r="B130" s="76"/>
       <c r="C130" s="34" t="s">
         <v>342</v>
       </c>
@@ -10322,7 +10322,7 @@
       <c r="AA130" s="27"/>
       <c r="AB130" s="27"/>
     </row>
-    <row r="131" spans="1:28" s="30" customFormat="1" ht="409.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A131" s="34"/>
       <c r="B131" s="34" t="s">
         <v>1039</v>
@@ -10402,7 +10402,7 @@
     </row>
     <row r="133" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="27"/>
-      <c r="B133" s="83" t="s">
+      <c r="B133" s="79" t="s">
         <v>1038</v>
       </c>
       <c r="C133" s="34" t="s">
@@ -10438,7 +10438,7 @@
     </row>
     <row r="134" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="27"/>
-      <c r="B134" s="82"/>
+      <c r="B134" s="76"/>
       <c r="C134" s="34" t="s">
         <v>346</v>
       </c>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="135" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="27"/>
-      <c r="B135" s="82"/>
+      <c r="B135" s="76"/>
       <c r="C135" s="34" t="s">
         <v>347</v>
       </c>
@@ -10506,7 +10506,7 @@
     </row>
     <row r="136" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="27"/>
-      <c r="B136" s="82"/>
+      <c r="B136" s="76"/>
       <c r="C136" s="34" t="s">
         <v>348</v>
       </c>
@@ -10540,7 +10540,7 @@
     </row>
     <row r="137" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="27"/>
-      <c r="B137" s="82"/>
+      <c r="B137" s="76"/>
       <c r="C137" s="34" t="s">
         <v>349</v>
       </c>
@@ -10574,7 +10574,7 @@
     </row>
     <row r="138" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="27"/>
-      <c r="B138" s="82"/>
+      <c r="B138" s="76"/>
       <c r="C138" s="34" t="s">
         <v>350</v>
       </c>
@@ -10608,16 +10608,16 @@
     </row>
     <row r="139" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="27"/>
-      <c r="B139" s="83" t="s">
+      <c r="B139" s="79" t="s">
         <v>1005</v>
       </c>
       <c r="C139" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="D139" s="87" t="s">
+      <c r="D139" s="78" t="s">
         <v>1006</v>
       </c>
-      <c r="E139" s="87" t="s">
+      <c r="E139" s="78" t="s">
         <v>1007</v>
       </c>
       <c r="F139" s="27"/>
@@ -10650,12 +10650,12 @@
     </row>
     <row r="140" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="27"/>
-      <c r="B140" s="82"/>
+      <c r="B140" s="76"/>
       <c r="C140" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="D140" s="83"/>
-      <c r="E140" s="82"/>
+      <c r="D140" s="79"/>
+      <c r="E140" s="76"/>
       <c r="F140" s="27"/>
       <c r="G140" s="27"/>
       <c r="H140" s="27" t="s">
@@ -10684,12 +10684,12 @@
     </row>
     <row r="141" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="27"/>
-      <c r="B141" s="82"/>
+      <c r="B141" s="76"/>
       <c r="C141" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="D141" s="83"/>
-      <c r="E141" s="82"/>
+      <c r="D141" s="79"/>
+      <c r="E141" s="76"/>
       <c r="F141" s="27"/>
       <c r="G141" s="27"/>
       <c r="H141" s="27" t="s">
@@ -10750,9 +10750,9 @@
       <c r="AA142" s="27"/>
       <c r="AB142" s="27"/>
     </row>
-    <row r="143" spans="1:28" s="30" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" s="30" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A143" s="49"/>
-      <c r="B143" s="93" t="s">
+      <c r="B143" s="81" t="s">
         <v>298</v>
       </c>
       <c r="C143" s="50" t="s">
@@ -10761,10 +10761,10 @@
       <c r="D143" s="58" t="s">
         <v>1008</v>
       </c>
-      <c r="E143" s="76" t="s">
+      <c r="E143" s="86" t="s">
         <v>1009</v>
       </c>
-      <c r="F143" s="76" t="s">
+      <c r="F143" s="86" t="s">
         <v>1010</v>
       </c>
       <c r="G143" s="49"/>
@@ -10796,15 +10796,15 @@
     </row>
     <row r="144" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="49"/>
-      <c r="B144" s="79"/>
+      <c r="B144" s="82"/>
       <c r="C144" s="49" t="s">
         <v>165</v>
       </c>
       <c r="D144" s="49" t="s">
         <v>1011</v>
       </c>
-      <c r="E144" s="76"/>
-      <c r="F144" s="79"/>
+      <c r="E144" s="86"/>
+      <c r="F144" s="82"/>
       <c r="G144" s="49"/>
       <c r="H144" s="49" t="s">
         <v>1241</v>
@@ -10832,15 +10832,15 @@
     </row>
     <row r="145" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="49"/>
-      <c r="B145" s="79"/>
+      <c r="B145" s="82"/>
       <c r="C145" s="49" t="s">
         <v>166</v>
       </c>
       <c r="D145" s="49" t="s">
         <v>1012</v>
       </c>
-      <c r="E145" s="76"/>
-      <c r="F145" s="79"/>
+      <c r="E145" s="86"/>
+      <c r="F145" s="82"/>
       <c r="G145" s="49"/>
       <c r="H145" s="49" t="s">
         <v>1241</v>
@@ -10866,7 +10866,7 @@
       <c r="AA145" s="27"/>
       <c r="AB145" s="27"/>
     </row>
-    <row r="146" spans="1:28" s="30" customFormat="1" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A146" s="49"/>
       <c r="B146" s="50" t="s">
         <v>300</v>
@@ -10940,7 +10940,7 @@
       <c r="AA147" s="27"/>
       <c r="AB147" s="27"/>
     </row>
-    <row r="148" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" s="30" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A148" s="49"/>
       <c r="B148" s="50" t="s">
         <v>1047</v>
@@ -10984,7 +10984,7 @@
       <c r="AA148" s="27"/>
       <c r="AB148" s="27"/>
     </row>
-    <row r="149" spans="1:28" s="30" customFormat="1" ht="290.39999999999998" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A149" s="27"/>
       <c r="B149" s="29" t="s">
         <v>1052</v>
@@ -11028,7 +11028,7 @@
       <c r="AA149" s="27"/>
       <c r="AB149" s="27"/>
     </row>
-    <row r="150" spans="1:28" s="30" customFormat="1" ht="264" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A150" s="27"/>
       <c r="B150" s="29" t="s">
         <v>1056</v>
@@ -11072,9 +11072,9 @@
       <c r="AA150" s="27"/>
       <c r="AB150" s="27"/>
     </row>
-    <row r="151" spans="1:28" s="30" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" s="30" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A151" s="27"/>
-      <c r="B151" s="83" t="s">
+      <c r="B151" s="79" t="s">
         <v>1059</v>
       </c>
       <c r="C151" s="34" t="s">
@@ -11083,10 +11083,10 @@
       <c r="D151" s="28" t="s">
         <v>1060</v>
       </c>
-      <c r="E151" s="87" t="s">
+      <c r="E151" s="78" t="s">
         <v>856</v>
       </c>
-      <c r="F151" s="82" t="s">
+      <c r="F151" s="76" t="s">
         <v>1061</v>
       </c>
       <c r="G151" s="27"/>
@@ -11118,15 +11118,15 @@
     </row>
     <row r="152" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="27"/>
-      <c r="B152" s="82"/>
+      <c r="B152" s="76"/>
       <c r="C152" s="35" t="s">
         <v>360</v>
       </c>
       <c r="D152" s="29" t="s">
         <v>1063</v>
       </c>
-      <c r="E152" s="87"/>
-      <c r="F152" s="82"/>
+      <c r="E152" s="78"/>
+      <c r="F152" s="76"/>
       <c r="G152" s="27"/>
       <c r="H152" s="27" t="s">
         <v>781</v>
@@ -11152,7 +11152,7 @@
       <c r="AA152" s="27"/>
       <c r="AB152" s="27"/>
     </row>
-    <row r="153" spans="1:28" s="30" customFormat="1" ht="409.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A153" s="34"/>
       <c r="B153" s="74" t="s">
         <v>1064</v>
@@ -11302,7 +11302,7 @@
     </row>
     <row r="157" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="27"/>
-      <c r="B157" s="83" t="s">
+      <c r="B157" s="79" t="s">
         <v>1068</v>
       </c>
       <c r="C157" s="34" t="s">
@@ -11338,7 +11338,7 @@
     </row>
     <row r="158" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="27"/>
-      <c r="B158" s="82"/>
+      <c r="B158" s="76"/>
       <c r="C158" s="34" t="s">
         <v>366</v>
       </c>
@@ -11370,7 +11370,7 @@
       <c r="AA158" s="27"/>
       <c r="AB158" s="27"/>
     </row>
-    <row r="159" spans="1:28" s="30" customFormat="1" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A159" s="27"/>
       <c r="B159" s="29" t="s">
         <v>1069</v>
@@ -11416,7 +11416,7 @@
     </row>
     <row r="160" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="27"/>
-      <c r="B160" s="83" t="s">
+      <c r="B160" s="79" t="s">
         <v>1068</v>
       </c>
       <c r="C160" s="35" t="s">
@@ -11452,7 +11452,7 @@
     </row>
     <row r="161" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="27"/>
-      <c r="B161" s="82"/>
+      <c r="B161" s="76"/>
       <c r="C161" s="34" t="s">
         <v>369</v>
       </c>
@@ -11486,7 +11486,7 @@
     </row>
     <row r="162" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="27"/>
-      <c r="B162" s="82"/>
+      <c r="B162" s="76"/>
       <c r="C162" s="34" t="s">
         <v>370</v>
       </c>
@@ -11518,9 +11518,9 @@
       <c r="AA162" s="27"/>
       <c r="AB162" s="27"/>
     </row>
-    <row r="163" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" s="30" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A163" s="27"/>
-      <c r="B163" s="83" t="s">
+      <c r="B163" s="79" t="s">
         <v>1072</v>
       </c>
       <c r="C163" s="35" t="s">
@@ -11562,7 +11562,7 @@
     </row>
     <row r="164" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="27"/>
-      <c r="B164" s="82"/>
+      <c r="B164" s="76"/>
       <c r="C164" s="33" t="s">
         <v>372</v>
       </c>
@@ -11596,16 +11596,16 @@
     </row>
     <row r="165" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="27"/>
-      <c r="B165" s="83" t="s">
+      <c r="B165" s="79" t="s">
         <v>1076</v>
       </c>
       <c r="C165" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="D165" s="98" t="s">
+      <c r="D165" s="84" t="s">
         <v>1077</v>
       </c>
-      <c r="E165" s="87" t="s">
+      <c r="E165" s="78" t="s">
         <v>1074</v>
       </c>
       <c r="F165" s="27"/>
@@ -11638,12 +11638,12 @@
     </row>
     <row r="166" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="27"/>
-      <c r="B166" s="82"/>
+      <c r="B166" s="76"/>
       <c r="C166" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="D166" s="99"/>
-      <c r="E166" s="82"/>
+      <c r="D166" s="85"/>
+      <c r="E166" s="76"/>
       <c r="F166" s="27"/>
       <c r="G166" s="27"/>
       <c r="H166" s="27" t="s">
@@ -11672,12 +11672,12 @@
     </row>
     <row r="167" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="27"/>
-      <c r="B167" s="82"/>
+      <c r="B167" s="76"/>
       <c r="C167" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="D167" s="99"/>
-      <c r="E167" s="82"/>
+      <c r="D167" s="85"/>
+      <c r="E167" s="76"/>
       <c r="F167" s="27"/>
       <c r="G167" s="27"/>
       <c r="H167" s="27" t="s">
@@ -11774,7 +11774,7 @@
       <c r="AA169" s="27"/>
       <c r="AB169" s="27"/>
     </row>
-    <row r="170" spans="1:28" s="30" customFormat="1" ht="264" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A170" s="27"/>
       <c r="B170" s="29" t="s">
         <v>1080</v>
@@ -11820,7 +11820,7 @@
     </row>
     <row r="171" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="27"/>
-      <c r="B171" s="97" t="s">
+      <c r="B171" s="80" t="s">
         <v>1079</v>
       </c>
       <c r="C171" s="34" t="s">
@@ -11856,7 +11856,7 @@
     </row>
     <row r="172" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="27"/>
-      <c r="B172" s="97"/>
+      <c r="B172" s="80"/>
       <c r="C172" s="34" t="s">
         <v>380</v>
       </c>
@@ -11888,7 +11888,7 @@
       <c r="AA172" s="27"/>
       <c r="AB172" s="27"/>
     </row>
-    <row r="173" spans="1:28" s="30" customFormat="1" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" s="30" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A173" s="27"/>
       <c r="B173" s="29" t="s">
         <v>1083</v>
@@ -11930,7 +11930,7 @@
       <c r="AA173" s="27"/>
       <c r="AB173" s="27"/>
     </row>
-    <row r="174" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" s="30" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A174" s="27"/>
       <c r="B174" s="29" t="s">
         <v>1087</v>
@@ -11972,9 +11972,9 @@
       <c r="AA174" s="27"/>
       <c r="AB174" s="27"/>
     </row>
-    <row r="175" spans="1:28" s="30" customFormat="1" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" s="30" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A175" s="67"/>
-      <c r="B175" s="93" t="s">
+      <c r="B175" s="81" t="s">
         <v>1091</v>
       </c>
       <c r="C175" s="67" t="s">
@@ -11983,7 +11983,7 @@
       <c r="D175" s="69" t="s">
         <v>1092</v>
       </c>
-      <c r="E175" s="78" t="s">
+      <c r="E175" s="83" t="s">
         <v>1093</v>
       </c>
       <c r="F175" s="67"/>
@@ -12016,14 +12016,14 @@
     </row>
     <row r="176" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="67"/>
-      <c r="B176" s="79"/>
+      <c r="B176" s="82"/>
       <c r="C176" s="67" t="s">
         <v>186</v>
       </c>
       <c r="D176" s="66" t="s">
         <v>1095</v>
       </c>
-      <c r="E176" s="79"/>
+      <c r="E176" s="82"/>
       <c r="F176" s="67"/>
       <c r="G176" s="67"/>
       <c r="H176" s="67" t="s">
@@ -12054,7 +12054,7 @@
     </row>
     <row r="177" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
-      <c r="B177" s="83" t="s">
+      <c r="B177" s="79" t="s">
         <v>1097</v>
       </c>
       <c r="C177" s="34" t="s">
@@ -12063,10 +12063,10 @@
       <c r="D177" s="29" t="s">
         <v>1098</v>
       </c>
-      <c r="E177" s="83" t="s">
+      <c r="E177" s="79" t="s">
         <v>1099</v>
       </c>
-      <c r="F177" s="87" t="s">
+      <c r="F177" s="78" t="s">
         <v>1100</v>
       </c>
       <c r="G177" s="27"/>
@@ -12096,15 +12096,15 @@
     </row>
     <row r="178" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="27"/>
-      <c r="B178" s="82"/>
+      <c r="B178" s="76"/>
       <c r="C178" s="34" t="s">
         <v>383</v>
       </c>
       <c r="D178" s="29" t="s">
         <v>1101</v>
       </c>
-      <c r="E178" s="82"/>
-      <c r="F178" s="82"/>
+      <c r="E178" s="76"/>
+      <c r="F178" s="76"/>
       <c r="G178" s="27"/>
       <c r="H178" s="27" t="s">
         <v>781</v>
@@ -12132,15 +12132,15 @@
     </row>
     <row r="179" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="27"/>
-      <c r="B179" s="82"/>
+      <c r="B179" s="76"/>
       <c r="C179" s="34" t="s">
         <v>384</v>
       </c>
       <c r="D179" s="39" t="s">
         <v>1102</v>
       </c>
-      <c r="E179" s="82"/>
-      <c r="F179" s="82"/>
+      <c r="E179" s="76"/>
+      <c r="F179" s="76"/>
       <c r="G179" s="27"/>
       <c r="H179" s="27" t="s">
         <v>781</v>
@@ -12168,15 +12168,15 @@
     </row>
     <row r="180" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="27"/>
-      <c r="B180" s="82"/>
+      <c r="B180" s="76"/>
       <c r="C180" s="34" t="s">
         <v>385</v>
       </c>
       <c r="D180" s="29" t="s">
         <v>1103</v>
       </c>
-      <c r="E180" s="82"/>
-      <c r="F180" s="82"/>
+      <c r="E180" s="76"/>
+      <c r="F180" s="76"/>
       <c r="G180" s="27"/>
       <c r="H180" s="27" t="s">
         <v>781</v>
@@ -12204,15 +12204,15 @@
     </row>
     <row r="181" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="27"/>
-      <c r="B181" s="82"/>
+      <c r="B181" s="76"/>
       <c r="C181" s="34" t="s">
         <v>386</v>
       </c>
       <c r="D181" s="29" t="s">
         <v>1104</v>
       </c>
-      <c r="E181" s="82"/>
-      <c r="F181" s="82"/>
+      <c r="E181" s="76"/>
+      <c r="F181" s="76"/>
       <c r="G181" s="27"/>
       <c r="H181" s="27" t="s">
         <v>781</v>
@@ -12240,15 +12240,15 @@
     </row>
     <row r="182" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="27"/>
-      <c r="B182" s="82"/>
+      <c r="B182" s="76"/>
       <c r="C182" s="34" t="s">
         <v>387</v>
       </c>
       <c r="D182" s="29" t="s">
         <v>1105</v>
       </c>
-      <c r="E182" s="82"/>
-      <c r="F182" s="82"/>
+      <c r="E182" s="76"/>
+      <c r="F182" s="76"/>
       <c r="G182" s="27"/>
       <c r="H182" s="27" t="s">
         <v>781</v>
@@ -12276,13 +12276,13 @@
     </row>
     <row r="183" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="27"/>
-      <c r="B183" s="82"/>
+      <c r="B183" s="76"/>
       <c r="C183" s="34" t="s">
         <v>388</v>
       </c>
       <c r="D183" s="27"/>
-      <c r="E183" s="82"/>
-      <c r="F183" s="82"/>
+      <c r="E183" s="76"/>
+      <c r="F183" s="76"/>
       <c r="G183" s="27"/>
       <c r="H183" s="27" t="s">
         <v>781</v>
@@ -12308,7 +12308,7 @@
       <c r="AA183" s="27"/>
       <c r="AB183" s="27"/>
     </row>
-    <row r="184" spans="1:28" s="30" customFormat="1" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" s="30" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A184" s="27"/>
       <c r="B184" s="29" t="s">
         <v>1106</v>
@@ -12350,7 +12350,7 @@
       <c r="AA184" s="27"/>
       <c r="AB184" s="27"/>
     </row>
-    <row r="185" spans="1:28" s="30" customFormat="1" ht="343.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A185" s="27"/>
       <c r="B185" s="37" t="s">
         <v>1110</v>
@@ -12394,9 +12394,9 @@
       <c r="AA185" s="27"/>
       <c r="AB185" s="27"/>
     </row>
-    <row r="186" spans="1:28" s="30" customFormat="1" ht="264" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" s="30" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A186" s="27"/>
-      <c r="B186" s="83" t="s">
+      <c r="B186" s="79" t="s">
         <v>1115</v>
       </c>
       <c r="C186" s="34" t="s">
@@ -12405,7 +12405,7 @@
       <c r="D186" s="28" t="s">
         <v>1116</v>
       </c>
-      <c r="E186" s="87" t="s">
+      <c r="E186" s="78" t="s">
         <v>1117</v>
       </c>
       <c r="F186" s="28" t="s">
@@ -12440,14 +12440,14 @@
     </row>
     <row r="187" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="27"/>
-      <c r="B187" s="82"/>
+      <c r="B187" s="76"/>
       <c r="C187" s="34" t="s">
         <v>391</v>
       </c>
       <c r="D187" s="29" t="s">
         <v>1120</v>
       </c>
-      <c r="E187" s="87"/>
+      <c r="E187" s="78"/>
       <c r="F187" s="27"/>
       <c r="G187" s="27"/>
       <c r="H187" s="27" t="s">
@@ -12508,7 +12508,7 @@
       <c r="AA188" s="27"/>
       <c r="AB188" s="27"/>
     </row>
-    <row r="189" spans="1:28" s="30" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A189" s="27"/>
       <c r="B189" s="27" t="s">
         <v>1121</v>
@@ -12552,7 +12552,7 @@
     </row>
     <row r="190" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="27"/>
-      <c r="B190" s="82" t="s">
+      <c r="B190" s="76" t="s">
         <v>1125</v>
       </c>
       <c r="C190" s="34" t="s">
@@ -12588,7 +12588,7 @@
     </row>
     <row r="191" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="27"/>
-      <c r="B191" s="82"/>
+      <c r="B191" s="76"/>
       <c r="C191" s="34" t="s">
         <v>393</v>
       </c>
@@ -12622,7 +12622,7 @@
     </row>
     <row r="192" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="27"/>
-      <c r="B192" s="82"/>
+      <c r="B192" s="76"/>
       <c r="C192" s="34" t="s">
         <v>394</v>
       </c>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="193" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="27"/>
-      <c r="B193" s="82"/>
+      <c r="B193" s="76"/>
       <c r="C193" s="34" t="s">
         <v>395</v>
       </c>
@@ -12690,7 +12690,7 @@
     </row>
     <row r="194" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="27"/>
-      <c r="B194" s="82"/>
+      <c r="B194" s="76"/>
       <c r="C194" s="34" t="s">
         <v>396</v>
       </c>
@@ -12724,7 +12724,7 @@
     </row>
     <row r="195" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="27"/>
-      <c r="B195" s="82"/>
+      <c r="B195" s="76"/>
       <c r="C195" s="34" t="s">
         <v>397</v>
       </c>
@@ -12758,7 +12758,7 @@
     </row>
     <row r="196" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="27"/>
-      <c r="B196" s="82"/>
+      <c r="B196" s="76"/>
       <c r="C196" s="34" t="s">
         <v>398</v>
       </c>
@@ -12792,7 +12792,7 @@
     </row>
     <row r="197" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="27"/>
-      <c r="B197" s="82"/>
+      <c r="B197" s="76"/>
       <c r="C197" s="34" t="s">
         <v>399</v>
       </c>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="198" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="27"/>
-      <c r="B198" s="82"/>
+      <c r="B198" s="76"/>
       <c r="C198" s="34" t="s">
         <v>400</v>
       </c>
@@ -12860,7 +12860,7 @@
     </row>
     <row r="199" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="27"/>
-      <c r="B199" s="82" t="s">
+      <c r="B199" s="76" t="s">
         <v>1126</v>
       </c>
       <c r="C199" s="34" t="s">
@@ -12896,7 +12896,7 @@
     </row>
     <row r="200" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="27"/>
-      <c r="B200" s="82"/>
+      <c r="B200" s="76"/>
       <c r="C200" s="34" t="s">
         <v>402</v>
       </c>
@@ -12930,7 +12930,7 @@
     </row>
     <row r="201" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="27"/>
-      <c r="B201" s="82"/>
+      <c r="B201" s="76"/>
       <c r="C201" s="34" t="s">
         <v>403</v>
       </c>
@@ -12964,7 +12964,7 @@
     </row>
     <row r="202" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="27"/>
-      <c r="B202" s="82"/>
+      <c r="B202" s="76"/>
       <c r="C202" s="34" t="s">
         <v>404</v>
       </c>
@@ -12998,7 +12998,7 @@
     </row>
     <row r="203" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="27"/>
-      <c r="B203" s="82"/>
+      <c r="B203" s="76"/>
       <c r="C203" s="34" t="s">
         <v>405</v>
       </c>
@@ -13032,7 +13032,7 @@
     </row>
     <row r="204" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="27"/>
-      <c r="B204" s="82"/>
+      <c r="B204" s="76"/>
       <c r="C204" s="34" t="s">
         <v>406</v>
       </c>
@@ -13066,7 +13066,7 @@
     </row>
     <row r="205" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="27"/>
-      <c r="B205" s="82"/>
+      <c r="B205" s="76"/>
       <c r="C205" s="34" t="s">
         <v>407</v>
       </c>
@@ -13100,7 +13100,7 @@
     </row>
     <row r="206" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="27"/>
-      <c r="B206" s="82"/>
+      <c r="B206" s="76"/>
       <c r="C206" s="34" t="s">
         <v>408</v>
       </c>
@@ -13134,7 +13134,7 @@
     </row>
     <row r="207" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="27"/>
-      <c r="B207" s="82"/>
+      <c r="B207" s="76"/>
       <c r="C207" s="34" t="s">
         <v>409</v>
       </c>
@@ -13168,7 +13168,7 @@
     </row>
     <row r="208" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="27"/>
-      <c r="B208" s="82"/>
+      <c r="B208" s="76"/>
       <c r="C208" s="34" t="s">
         <v>410</v>
       </c>
@@ -13202,7 +13202,7 @@
     </row>
     <row r="209" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="27"/>
-      <c r="B209" s="82"/>
+      <c r="B209" s="76"/>
       <c r="C209" s="34" t="s">
         <v>411</v>
       </c>
@@ -13236,7 +13236,7 @@
     </row>
     <row r="210" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="27"/>
-      <c r="B210" s="82"/>
+      <c r="B210" s="76"/>
       <c r="C210" s="34" t="s">
         <v>412</v>
       </c>
@@ -13270,7 +13270,7 @@
     </row>
     <row r="211" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="27"/>
-      <c r="B211" s="82"/>
+      <c r="B211" s="76"/>
       <c r="C211" s="34" t="s">
         <v>413</v>
       </c>
@@ -13302,9 +13302,9 @@
       <c r="AA211" s="27"/>
       <c r="AB211" s="27"/>
     </row>
-    <row r="212" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A212" s="27"/>
-      <c r="B212" s="82" t="s">
+      <c r="B212" s="76" t="s">
         <v>1127</v>
       </c>
       <c r="C212" s="34" t="s">
@@ -13316,7 +13316,7 @@
       <c r="E212" s="31" t="s">
         <v>1129</v>
       </c>
-      <c r="F212" s="80" t="s">
+      <c r="F212" s="77" t="s">
         <v>1130</v>
       </c>
       <c r="G212" s="27"/>
@@ -13348,7 +13348,7 @@
     </row>
     <row r="213" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="27"/>
-      <c r="B213" s="82"/>
+      <c r="B213" s="76"/>
       <c r="C213" s="34" t="s">
         <v>415</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>1132</v>
       </c>
       <c r="E213" s="27"/>
-      <c r="F213" s="82"/>
+      <c r="F213" s="76"/>
       <c r="G213" s="27"/>
       <c r="H213" s="27" t="s">
         <v>781</v>
@@ -13418,7 +13418,7 @@
       <c r="AA214" s="27"/>
       <c r="AB214" s="27"/>
     </row>
-    <row r="215" spans="1:28" s="30" customFormat="1" ht="343.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" s="30" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A215" s="27"/>
       <c r="B215" s="27" t="s">
         <v>1134</v>
@@ -13568,7 +13568,7 @@
       <c r="AA218" s="27"/>
       <c r="AB218" s="27"/>
     </row>
-    <row r="219" spans="1:28" s="30" customFormat="1" ht="290.39999999999998" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A219" s="27"/>
       <c r="B219" s="40" t="s">
         <v>1138</v>
@@ -13612,7 +13612,7 @@
       <c r="AA219" s="27"/>
       <c r="AB219" s="27"/>
     </row>
-    <row r="220" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" s="30" customFormat="1" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A220" s="49"/>
       <c r="B220" s="49" t="s">
         <v>1141</v>
@@ -13658,7 +13658,7 @@
       <c r="AA220" s="27"/>
       <c r="AB220" s="27"/>
     </row>
-    <row r="221" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A221" s="27"/>
       <c r="B221" s="27" t="s">
         <v>1146</v>
@@ -13740,7 +13740,7 @@
       <c r="AA222" s="27"/>
       <c r="AB222" s="27"/>
     </row>
-    <row r="223" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" s="30" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A223" s="27"/>
       <c r="B223" s="27" t="s">
         <v>1150</v>
@@ -13782,7 +13782,7 @@
       <c r="AA223" s="27"/>
       <c r="AB223" s="27"/>
     </row>
-    <row r="224" spans="1:28" s="30" customFormat="1" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" s="30" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A224" s="27"/>
       <c r="B224" s="27" t="s">
         <v>1153</v>
@@ -13824,7 +13824,7 @@
       <c r="AA224" s="27"/>
       <c r="AB224" s="27"/>
     </row>
-    <row r="225" spans="1:28" s="30" customFormat="1" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A225" s="27"/>
       <c r="B225" s="27" t="s">
         <v>1157</v>
@@ -13868,7 +13868,7 @@
       <c r="AA225" s="27"/>
       <c r="AB225" s="27"/>
     </row>
-    <row r="226" spans="1:28" s="30" customFormat="1" ht="396" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" s="30" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A226" s="27"/>
       <c r="B226" s="27" t="s">
         <v>1160</v>
@@ -14526,7 +14526,7 @@
     </row>
     <row r="245" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="27"/>
-      <c r="B245" s="82" t="s">
+      <c r="B245" s="76" t="s">
         <v>1163</v>
       </c>
       <c r="C245" s="34" t="s">
@@ -14562,7 +14562,7 @@
     </row>
     <row r="246" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="27"/>
-      <c r="B246" s="82"/>
+      <c r="B246" s="76"/>
       <c r="C246" s="34" t="s">
         <v>447</v>
       </c>
@@ -14596,7 +14596,7 @@
     </row>
     <row r="247" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="27"/>
-      <c r="B247" s="82"/>
+      <c r="B247" s="76"/>
       <c r="C247" s="34" t="s">
         <v>448</v>
       </c>
@@ -14630,7 +14630,7 @@
     </row>
     <row r="248" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="27"/>
-      <c r="B248" s="82"/>
+      <c r="B248" s="76"/>
       <c r="C248" s="34" t="s">
         <v>449</v>
       </c>
@@ -14664,7 +14664,7 @@
     </row>
     <row r="249" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="27"/>
-      <c r="B249" s="82"/>
+      <c r="B249" s="76"/>
       <c r="C249" s="34" t="s">
         <v>450</v>
       </c>
@@ -14698,7 +14698,7 @@
     </row>
     <row r="250" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="27"/>
-      <c r="B250" s="82"/>
+      <c r="B250" s="76"/>
       <c r="C250" s="34" t="s">
         <v>451</v>
       </c>
@@ -14730,7 +14730,7 @@
       <c r="AA250" s="27"/>
       <c r="AB250" s="27"/>
     </row>
-    <row r="251" spans="1:28" s="30" customFormat="1" ht="369.6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A251" s="27"/>
       <c r="B251" s="27" t="s">
         <v>1164</v>
@@ -14772,7 +14772,7 @@
       <c r="AA251" s="27"/>
       <c r="AB251" s="27"/>
     </row>
-    <row r="252" spans="1:28" s="30" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A252" s="27"/>
       <c r="B252" s="27" t="s">
         <v>1166</v>
@@ -14888,7 +14888,7 @@
     </row>
     <row r="255" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="27"/>
-      <c r="B255" s="82" t="s">
+      <c r="B255" s="76" t="s">
         <v>1169</v>
       </c>
       <c r="C255" s="34" t="s">
@@ -14924,7 +14924,7 @@
     </row>
     <row r="256" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="27"/>
-      <c r="B256" s="82"/>
+      <c r="B256" s="76"/>
       <c r="C256" s="34" t="s">
         <v>193</v>
       </c>
@@ -14958,7 +14958,7 @@
     </row>
     <row r="257" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="27"/>
-      <c r="B257" s="82"/>
+      <c r="B257" s="76"/>
       <c r="C257" s="34" t="s">
         <v>194</v>
       </c>
@@ -14992,7 +14992,7 @@
     </row>
     <row r="258" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="27"/>
-      <c r="B258" s="82"/>
+      <c r="B258" s="76"/>
       <c r="C258" s="34" t="s">
         <v>195</v>
       </c>
@@ -15024,9 +15024,9 @@
       <c r="AA258" s="27"/>
       <c r="AB258" s="27"/>
     </row>
-    <row r="259" spans="1:28" s="30" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A259" s="27"/>
-      <c r="B259" s="82" t="s">
+      <c r="B259" s="76" t="s">
         <v>1170</v>
       </c>
       <c r="C259" s="34" t="s">
@@ -15035,7 +15035,7 @@
       <c r="D259" s="31" t="s">
         <v>1171</v>
       </c>
-      <c r="E259" s="80" t="s">
+      <c r="E259" s="77" t="s">
         <v>1093</v>
       </c>
       <c r="F259" s="27"/>
@@ -15064,16 +15064,16 @@
       <c r="AA259" s="27"/>
       <c r="AB259" s="27"/>
     </row>
-    <row r="260" spans="1:28" s="30" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" s="30" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A260" s="27"/>
-      <c r="B260" s="82"/>
+      <c r="B260" s="76"/>
       <c r="C260" s="34" t="s">
         <v>197</v>
       </c>
       <c r="D260" s="31" t="s">
         <v>1172</v>
       </c>
-      <c r="E260" s="80"/>
+      <c r="E260" s="77"/>
       <c r="F260" s="27"/>
       <c r="G260" s="27"/>
       <c r="H260" s="27" t="s">
@@ -15102,7 +15102,7 @@
     </row>
     <row r="261" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="27"/>
-      <c r="B261" s="82" t="s">
+      <c r="B261" s="76" t="s">
         <v>1173</v>
       </c>
       <c r="C261" s="34" t="s">
@@ -15138,7 +15138,7 @@
     </row>
     <row r="262" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="27"/>
-      <c r="B262" s="82"/>
+      <c r="B262" s="76"/>
       <c r="C262" s="34" t="s">
         <v>456</v>
       </c>
@@ -15208,7 +15208,7 @@
     </row>
     <row r="264" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="27"/>
-      <c r="B264" s="82" t="s">
+      <c r="B264" s="76" t="s">
         <v>1174</v>
       </c>
       <c r="C264" s="34" t="s">
@@ -15217,7 +15217,7 @@
       <c r="D264" s="27" t="s">
         <v>1175</v>
       </c>
-      <c r="E264" s="80" t="s">
+      <c r="E264" s="77" t="s">
         <v>1176</v>
       </c>
       <c r="F264" s="27"/>
@@ -15248,14 +15248,14 @@
     </row>
     <row r="265" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="27"/>
-      <c r="B265" s="82"/>
+      <c r="B265" s="76"/>
       <c r="C265" s="34" t="s">
         <v>459</v>
       </c>
       <c r="D265" s="27" t="s">
         <v>1177</v>
       </c>
-      <c r="E265" s="82"/>
+      <c r="E265" s="76"/>
       <c r="F265" s="27"/>
       <c r="G265" s="27"/>
       <c r="H265" s="27" t="s">
@@ -15284,14 +15284,14 @@
     </row>
     <row r="266" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="27"/>
-      <c r="B266" s="82"/>
+      <c r="B266" s="76"/>
       <c r="C266" s="34" t="s">
         <v>460</v>
       </c>
       <c r="D266" s="27" t="s">
         <v>1178</v>
       </c>
-      <c r="E266" s="82"/>
+      <c r="E266" s="76"/>
       <c r="F266" s="27"/>
       <c r="G266" s="27"/>
       <c r="H266" s="27" t="s">
@@ -15320,14 +15320,14 @@
     </row>
     <row r="267" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="27"/>
-      <c r="B267" s="82"/>
+      <c r="B267" s="76"/>
       <c r="C267" s="34" t="s">
         <v>461</v>
       </c>
       <c r="D267" s="27" t="s">
         <v>1179</v>
       </c>
-      <c r="E267" s="82"/>
+      <c r="E267" s="76"/>
       <c r="F267" s="27"/>
       <c r="G267" s="27"/>
       <c r="H267" s="27" t="s">
@@ -15356,14 +15356,14 @@
     </row>
     <row r="268" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="27"/>
-      <c r="B268" s="82"/>
+      <c r="B268" s="76"/>
       <c r="C268" s="34" t="s">
         <v>462</v>
       </c>
       <c r="D268" s="27" t="s">
         <v>1180</v>
       </c>
-      <c r="E268" s="82"/>
+      <c r="E268" s="76"/>
       <c r="F268" s="27"/>
       <c r="G268" s="27"/>
       <c r="H268" s="27" t="s">
@@ -15392,14 +15392,14 @@
     </row>
     <row r="269" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="27"/>
-      <c r="B269" s="82"/>
+      <c r="B269" s="76"/>
       <c r="C269" s="34" t="s">
         <v>463</v>
       </c>
       <c r="D269" s="27" t="s">
         <v>1181</v>
       </c>
-      <c r="E269" s="82"/>
+      <c r="E269" s="76"/>
       <c r="F269" s="27"/>
       <c r="G269" s="27"/>
       <c r="H269" s="27" t="s">
@@ -15428,14 +15428,14 @@
     </row>
     <row r="270" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="27"/>
-      <c r="B270" s="82"/>
+      <c r="B270" s="76"/>
       <c r="C270" s="34" t="s">
         <v>464</v>
       </c>
       <c r="D270" s="27" t="s">
         <v>1182</v>
       </c>
-      <c r="E270" s="82"/>
+      <c r="E270" s="76"/>
       <c r="F270" s="27"/>
       <c r="G270" s="27"/>
       <c r="H270" s="27" t="s">
@@ -15822,9 +15822,9 @@
       <c r="AA280" s="27"/>
       <c r="AB280" s="27"/>
     </row>
-    <row r="281" spans="1:28" s="30" customFormat="1" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A281" s="27"/>
-      <c r="B281" s="82" t="s">
+      <c r="B281" s="76" t="s">
         <v>1183</v>
       </c>
       <c r="C281" s="34" t="s">
@@ -15833,10 +15833,10 @@
       <c r="D281" s="31" t="s">
         <v>1184</v>
       </c>
-      <c r="E281" s="80" t="s">
+      <c r="E281" s="77" t="s">
         <v>1185</v>
       </c>
-      <c r="F281" s="80" t="s">
+      <c r="F281" s="77" t="s">
         <v>1186</v>
       </c>
       <c r="G281" s="27"/>
@@ -15866,15 +15866,15 @@
     </row>
     <row r="282" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="27"/>
-      <c r="B282" s="82"/>
+      <c r="B282" s="76"/>
       <c r="C282" s="34" t="s">
         <v>199</v>
       </c>
       <c r="D282" s="27" t="s">
         <v>1187</v>
       </c>
-      <c r="E282" s="82"/>
-      <c r="F282" s="82"/>
+      <c r="E282" s="76"/>
+      <c r="F282" s="76"/>
       <c r="G282" s="27"/>
       <c r="H282" s="27" t="s">
         <v>781</v>
@@ -15902,15 +15902,15 @@
     </row>
     <row r="283" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="27"/>
-      <c r="B283" s="82"/>
+      <c r="B283" s="76"/>
       <c r="C283" s="34" t="s">
         <v>200</v>
       </c>
       <c r="D283" s="27" t="s">
         <v>1188</v>
       </c>
-      <c r="E283" s="82"/>
-      <c r="F283" s="82"/>
+      <c r="E283" s="76"/>
+      <c r="F283" s="76"/>
       <c r="G283" s="27"/>
       <c r="H283" s="27" t="s">
         <v>781</v>
@@ -15938,7 +15938,7 @@
     </row>
     <row r="284" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="27"/>
-      <c r="B284" s="82" t="s">
+      <c r="B284" s="76" t="s">
         <v>1189</v>
       </c>
       <c r="C284" s="27" t="s">
@@ -15974,7 +15974,7 @@
     </row>
     <row r="285" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="27"/>
-      <c r="B285" s="82"/>
+      <c r="B285" s="76"/>
       <c r="C285" s="27" t="s">
         <v>476</v>
       </c>
@@ -16008,7 +16008,7 @@
     </row>
     <row r="286" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="27"/>
-      <c r="B286" s="82"/>
+      <c r="B286" s="76"/>
       <c r="C286" s="27" t="s">
         <v>477</v>
       </c>
@@ -16042,7 +16042,7 @@
     </row>
     <row r="287" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="27"/>
-      <c r="B287" s="82"/>
+      <c r="B287" s="76"/>
       <c r="C287" s="27" t="s">
         <v>478</v>
       </c>
@@ -16076,7 +16076,7 @@
     </row>
     <row r="288" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="27"/>
-      <c r="B288" s="82"/>
+      <c r="B288" s="76"/>
       <c r="C288" s="27" t="s">
         <v>479</v>
       </c>
@@ -16110,7 +16110,7 @@
     </row>
     <row r="289" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="27"/>
-      <c r="B289" s="82"/>
+      <c r="B289" s="76"/>
       <c r="C289" s="27" t="s">
         <v>480</v>
       </c>
@@ -16144,7 +16144,7 @@
     </row>
     <row r="290" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="27"/>
-      <c r="B290" s="82"/>
+      <c r="B290" s="76"/>
       <c r="C290" s="27" t="s">
         <v>481</v>
       </c>
@@ -16178,7 +16178,7 @@
     </row>
     <row r="291" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="27"/>
-      <c r="B291" s="82"/>
+      <c r="B291" s="76"/>
       <c r="C291" s="27" t="s">
         <v>482</v>
       </c>
@@ -16212,7 +16212,7 @@
     </row>
     <row r="292" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="27"/>
-      <c r="B292" s="82"/>
+      <c r="B292" s="76"/>
       <c r="C292" s="27" t="s">
         <v>483</v>
       </c>
@@ -16246,7 +16246,7 @@
     </row>
     <row r="293" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="27"/>
-      <c r="B293" s="82"/>
+      <c r="B293" s="76"/>
       <c r="C293" s="27" t="s">
         <v>484</v>
       </c>
@@ -16280,7 +16280,7 @@
     </row>
     <row r="294" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="27"/>
-      <c r="B294" s="82"/>
+      <c r="B294" s="76"/>
       <c r="C294" s="27" t="s">
         <v>485</v>
       </c>
@@ -16314,7 +16314,7 @@
     </row>
     <row r="295" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="27"/>
-      <c r="B295" s="82"/>
+      <c r="B295" s="76"/>
       <c r="C295" s="27" t="s">
         <v>486</v>
       </c>
@@ -16348,7 +16348,7 @@
     </row>
     <row r="296" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="27"/>
-      <c r="B296" s="82"/>
+      <c r="B296" s="76"/>
       <c r="C296" s="27" t="s">
         <v>487</v>
       </c>
@@ -16382,7 +16382,7 @@
     </row>
     <row r="297" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="27"/>
-      <c r="B297" s="82"/>
+      <c r="B297" s="76"/>
       <c r="C297" s="27" t="s">
         <v>488</v>
       </c>
@@ -16416,7 +16416,7 @@
     </row>
     <row r="298" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="27"/>
-      <c r="B298" s="82"/>
+      <c r="B298" s="76"/>
       <c r="C298" s="27" t="s">
         <v>489</v>
       </c>
@@ -16450,7 +16450,7 @@
     </row>
     <row r="299" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="27"/>
-      <c r="B299" s="82"/>
+      <c r="B299" s="76"/>
       <c r="C299" s="27" t="s">
         <v>490</v>
       </c>
@@ -16484,7 +16484,7 @@
     </row>
     <row r="300" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="27"/>
-      <c r="B300" s="82"/>
+      <c r="B300" s="76"/>
       <c r="C300" s="27" t="s">
         <v>491</v>
       </c>
@@ -16518,7 +16518,7 @@
     </row>
     <row r="301" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="27"/>
-      <c r="B301" s="82"/>
+      <c r="B301" s="76"/>
       <c r="C301" s="27" t="s">
         <v>492</v>
       </c>
@@ -16552,7 +16552,7 @@
     </row>
     <row r="302" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="27"/>
-      <c r="B302" s="82"/>
+      <c r="B302" s="76"/>
       <c r="C302" s="27" t="s">
         <v>493</v>
       </c>
@@ -16586,7 +16586,7 @@
     </row>
     <row r="303" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="27"/>
-      <c r="B303" s="82"/>
+      <c r="B303" s="76"/>
       <c r="C303" s="27" t="s">
         <v>494</v>
       </c>
@@ -16620,7 +16620,7 @@
     </row>
     <row r="304" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="27"/>
-      <c r="B304" s="82"/>
+      <c r="B304" s="76"/>
       <c r="C304" s="27" t="s">
         <v>495</v>
       </c>
@@ -16654,7 +16654,7 @@
     </row>
     <row r="305" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="27"/>
-      <c r="B305" s="82"/>
+      <c r="B305" s="76"/>
       <c r="C305" s="27" t="s">
         <v>496</v>
       </c>
@@ -16688,7 +16688,7 @@
     </row>
     <row r="306" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="27"/>
-      <c r="B306" s="82"/>
+      <c r="B306" s="76"/>
       <c r="C306" s="27" t="s">
         <v>497</v>
       </c>
@@ -16722,7 +16722,7 @@
     </row>
     <row r="307" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="27"/>
-      <c r="B307" s="82"/>
+      <c r="B307" s="76"/>
       <c r="C307" s="27" t="s">
         <v>498</v>
       </c>
@@ -16756,7 +16756,7 @@
     </row>
     <row r="308" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="27"/>
-      <c r="B308" s="82"/>
+      <c r="B308" s="76"/>
       <c r="C308" s="27" t="s">
         <v>499</v>
       </c>
@@ -16790,7 +16790,7 @@
     </row>
     <row r="309" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="27"/>
-      <c r="B309" s="82"/>
+      <c r="B309" s="76"/>
       <c r="C309" s="27" t="s">
         <v>500</v>
       </c>
@@ -16824,7 +16824,7 @@
     </row>
     <row r="310" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="27"/>
-      <c r="B310" s="82"/>
+      <c r="B310" s="76"/>
       <c r="C310" s="27" t="s">
         <v>501</v>
       </c>
@@ -16858,7 +16858,7 @@
     </row>
     <row r="311" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="27"/>
-      <c r="B311" s="82"/>
+      <c r="B311" s="76"/>
       <c r="C311" s="27" t="s">
         <v>502</v>
       </c>
@@ -16892,7 +16892,7 @@
     </row>
     <row r="312" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="27"/>
-      <c r="B312" s="82"/>
+      <c r="B312" s="76"/>
       <c r="C312" s="27" t="s">
         <v>503</v>
       </c>
@@ -16926,7 +16926,7 @@
     </row>
     <row r="313" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="27"/>
-      <c r="B313" s="82"/>
+      <c r="B313" s="76"/>
       <c r="C313" s="27" t="s">
         <v>504</v>
       </c>
@@ -16960,7 +16960,7 @@
     </row>
     <row r="314" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="27"/>
-      <c r="B314" s="82"/>
+      <c r="B314" s="76"/>
       <c r="C314" s="27" t="s">
         <v>505</v>
       </c>
@@ -16994,7 +16994,7 @@
     </row>
     <row r="315" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="27"/>
-      <c r="B315" s="82"/>
+      <c r="B315" s="76"/>
       <c r="C315" s="27" t="s">
         <v>506</v>
       </c>
@@ -17028,7 +17028,7 @@
     </row>
     <row r="316" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="27"/>
-      <c r="B316" s="82"/>
+      <c r="B316" s="76"/>
       <c r="C316" s="27" t="s">
         <v>507</v>
       </c>
@@ -17062,7 +17062,7 @@
     </row>
     <row r="317" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="27"/>
-      <c r="B317" s="82"/>
+      <c r="B317" s="76"/>
       <c r="C317" s="27" t="s">
         <v>508</v>
       </c>
@@ -17132,7 +17132,7 @@
       <c r="AA318" s="27"/>
       <c r="AB318" s="27"/>
     </row>
-    <row r="319" spans="1:28" s="30" customFormat="1" ht="290.39999999999998" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A319" s="27"/>
       <c r="B319" s="27"/>
       <c r="C319" s="27" t="s">
@@ -17174,7 +17174,7 @@
     </row>
     <row r="320" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="27"/>
-      <c r="B320" s="82" t="s">
+      <c r="B320" s="76" t="s">
         <v>1190</v>
       </c>
       <c r="C320" s="27" t="s">
@@ -17183,10 +17183,10 @@
       <c r="D320" s="27" t="s">
         <v>1193</v>
       </c>
-      <c r="E320" s="82" t="s">
+      <c r="E320" s="76" t="s">
         <v>1099</v>
       </c>
-      <c r="F320" s="80" t="s">
+      <c r="F320" s="77" t="s">
         <v>1194</v>
       </c>
       <c r="G320" s="27"/>
@@ -17216,15 +17216,15 @@
     </row>
     <row r="321" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="27"/>
-      <c r="B321" s="82"/>
+      <c r="B321" s="76"/>
       <c r="C321" s="27" t="s">
         <v>512</v>
       </c>
       <c r="D321" s="27" t="s">
         <v>1195</v>
       </c>
-      <c r="E321" s="82"/>
-      <c r="F321" s="82"/>
+      <c r="E321" s="76"/>
+      <c r="F321" s="76"/>
       <c r="G321" s="27"/>
       <c r="H321" s="27" t="s">
         <v>781</v>
@@ -17252,15 +17252,15 @@
     </row>
     <row r="322" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="27"/>
-      <c r="B322" s="82"/>
+      <c r="B322" s="76"/>
       <c r="C322" s="27" t="s">
         <v>513</v>
       </c>
       <c r="D322" s="27" t="s">
         <v>1196</v>
       </c>
-      <c r="E322" s="82"/>
-      <c r="F322" s="82"/>
+      <c r="E322" s="76"/>
+      <c r="F322" s="76"/>
       <c r="G322" s="27"/>
       <c r="H322" s="27" t="s">
         <v>781</v>
@@ -17288,15 +17288,15 @@
     </row>
     <row r="323" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="27"/>
-      <c r="B323" s="82"/>
+      <c r="B323" s="76"/>
       <c r="C323" s="27" t="s">
         <v>514</v>
       </c>
       <c r="D323" s="27" t="s">
         <v>1197</v>
       </c>
-      <c r="E323" s="82"/>
-      <c r="F323" s="82"/>
+      <c r="E323" s="76"/>
+      <c r="F323" s="76"/>
       <c r="G323" s="27"/>
       <c r="H323" s="27" t="s">
         <v>781</v>
@@ -17324,15 +17324,15 @@
     </row>
     <row r="324" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="27"/>
-      <c r="B324" s="82"/>
+      <c r="B324" s="76"/>
       <c r="C324" s="27" t="s">
         <v>515</v>
       </c>
       <c r="D324" s="27" t="s">
         <v>1198</v>
       </c>
-      <c r="E324" s="82"/>
-      <c r="F324" s="82"/>
+      <c r="E324" s="76"/>
+      <c r="F324" s="76"/>
       <c r="G324" s="27"/>
       <c r="H324" s="27" t="s">
         <v>781</v>
@@ -17360,15 +17360,15 @@
     </row>
     <row r="325" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="27"/>
-      <c r="B325" s="82"/>
+      <c r="B325" s="76"/>
       <c r="C325" s="27" t="s">
         <v>516</v>
       </c>
       <c r="D325" s="27" t="s">
         <v>1199</v>
       </c>
-      <c r="E325" s="82"/>
-      <c r="F325" s="82"/>
+      <c r="E325" s="76"/>
+      <c r="F325" s="76"/>
       <c r="G325" s="27"/>
       <c r="H325" s="27" t="s">
         <v>781</v>
@@ -17396,13 +17396,13 @@
     </row>
     <row r="326" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="27"/>
-      <c r="B326" s="82"/>
+      <c r="B326" s="76"/>
       <c r="C326" s="27" t="s">
         <v>517</v>
       </c>
       <c r="D326" s="27"/>
-      <c r="E326" s="82"/>
-      <c r="F326" s="82"/>
+      <c r="E326" s="76"/>
+      <c r="F326" s="76"/>
       <c r="G326" s="27"/>
       <c r="H326" s="27" t="s">
         <v>781</v>
@@ -17428,9 +17428,9 @@
       <c r="AA326" s="27"/>
       <c r="AB326" s="27"/>
     </row>
-    <row r="327" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" s="30" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A327" s="27"/>
-      <c r="B327" s="82" t="s">
+      <c r="B327" s="76" t="s">
         <v>1200</v>
       </c>
       <c r="C327" s="27" t="s">
@@ -17439,7 +17439,7 @@
       <c r="D327" s="31" t="s">
         <v>1201</v>
       </c>
-      <c r="E327" s="80" t="s">
+      <c r="E327" s="77" t="s">
         <v>1202</v>
       </c>
       <c r="F327" s="31" t="s">
@@ -17472,14 +17472,14 @@
     </row>
     <row r="328" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="27"/>
-      <c r="B328" s="82"/>
+      <c r="B328" s="76"/>
       <c r="C328" s="27" t="s">
         <v>202</v>
       </c>
       <c r="D328" s="27" t="s">
         <v>1204</v>
       </c>
-      <c r="E328" s="80"/>
+      <c r="E328" s="77"/>
       <c r="F328" s="27"/>
       <c r="G328" s="27"/>
       <c r="H328" s="27" t="s">
@@ -17508,14 +17508,14 @@
     </row>
     <row r="329" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="27"/>
-      <c r="B329" s="82"/>
+      <c r="B329" s="76"/>
       <c r="C329" s="27" t="s">
         <v>203</v>
       </c>
       <c r="D329" s="27" t="s">
         <v>1205</v>
       </c>
-      <c r="E329" s="80"/>
+      <c r="E329" s="77"/>
       <c r="F329" s="27"/>
       <c r="G329" s="27"/>
       <c r="H329" s="27" t="s">
@@ -17542,7 +17542,7 @@
       <c r="AA329" s="27"/>
       <c r="AB329" s="27"/>
     </row>
-    <row r="330" spans="1:28" s="30" customFormat="1" ht="343.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A330" s="27"/>
       <c r="B330" s="27" t="s">
         <v>1206</v>
@@ -17652,7 +17652,7 @@
       <c r="AA332" s="27"/>
       <c r="AB332" s="27"/>
     </row>
-    <row r="333" spans="1:28" s="30" customFormat="1" ht="264" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" s="30" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A333" s="27"/>
       <c r="B333" s="27" t="s">
         <v>1209</v>
@@ -17732,7 +17732,7 @@
     </row>
     <row r="335" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="27"/>
-      <c r="B335" s="82" t="s">
+      <c r="B335" s="76" t="s">
         <v>1212</v>
       </c>
       <c r="C335" s="29" t="s">
@@ -17768,7 +17768,7 @@
     </row>
     <row r="336" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="27"/>
-      <c r="B336" s="82"/>
+      <c r="B336" s="76"/>
       <c r="C336" s="27" t="s">
         <v>206</v>
       </c>
@@ -17802,7 +17802,7 @@
     </row>
     <row r="337" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="27"/>
-      <c r="B337" s="82"/>
+      <c r="B337" s="76"/>
       <c r="C337" s="27" t="s">
         <v>207</v>
       </c>
@@ -17836,7 +17836,7 @@
     </row>
     <row r="338" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="27"/>
-      <c r="B338" s="82"/>
+      <c r="B338" s="76"/>
       <c r="C338" s="27" t="s">
         <v>208</v>
       </c>
@@ -17870,7 +17870,7 @@
     </row>
     <row r="339" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="27"/>
-      <c r="B339" s="82"/>
+      <c r="B339" s="76"/>
       <c r="C339" s="27" t="s">
         <v>522</v>
       </c>
@@ -17904,7 +17904,7 @@
     </row>
     <row r="340" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="27"/>
-      <c r="B340" s="82"/>
+      <c r="B340" s="76"/>
       <c r="C340" s="27" t="s">
         <v>209</v>
       </c>
@@ -17938,7 +17938,7 @@
     </row>
     <row r="341" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="27"/>
-      <c r="B341" s="82"/>
+      <c r="B341" s="76"/>
       <c r="C341" s="27" t="s">
         <v>210</v>
       </c>
@@ -17972,7 +17972,7 @@
     </row>
     <row r="342" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="27"/>
-      <c r="B342" s="82"/>
+      <c r="B342" s="76"/>
       <c r="C342" s="27" t="s">
         <v>211</v>
       </c>
@@ -18006,7 +18006,7 @@
     </row>
     <row r="343" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="27"/>
-      <c r="B343" s="82"/>
+      <c r="B343" s="76"/>
       <c r="C343" s="27" t="s">
         <v>523</v>
       </c>
@@ -18040,7 +18040,7 @@
     </row>
     <row r="344" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="27"/>
-      <c r="B344" s="82"/>
+      <c r="B344" s="76"/>
       <c r="C344" s="27" t="s">
         <v>212</v>
       </c>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="345" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="27"/>
-      <c r="B345" s="82"/>
+      <c r="B345" s="76"/>
       <c r="C345" s="27" t="s">
         <v>213</v>
       </c>
@@ -18108,7 +18108,7 @@
     </row>
     <row r="346" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="27"/>
-      <c r="B346" s="82"/>
+      <c r="B346" s="76"/>
       <c r="C346" s="27" t="s">
         <v>214</v>
       </c>
@@ -18142,7 +18142,7 @@
     </row>
     <row r="347" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="27"/>
-      <c r="B347" s="82"/>
+      <c r="B347" s="76"/>
       <c r="C347" s="27" t="s">
         <v>524</v>
       </c>
@@ -18176,7 +18176,7 @@
     </row>
     <row r="348" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="27"/>
-      <c r="B348" s="82"/>
+      <c r="B348" s="76"/>
       <c r="C348" s="27" t="s">
         <v>215</v>
       </c>
@@ -18208,7 +18208,7 @@
       <c r="AA348" s="27"/>
       <c r="AB348" s="27"/>
     </row>
-    <row r="349" spans="1:28" s="30" customFormat="1" ht="343.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A349" s="27"/>
       <c r="B349" s="27" t="s">
         <v>1213</v>
@@ -18352,7 +18352,7 @@
       <c r="AA352" s="27"/>
       <c r="AB352" s="27"/>
     </row>
-    <row r="353" spans="1:28" s="30" customFormat="1" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A353" s="27"/>
       <c r="B353" s="27" t="s">
         <v>1215</v>
@@ -18460,7 +18460,7 @@
       <c r="AA355" s="27"/>
       <c r="AB355" s="27"/>
     </row>
-    <row r="356" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" s="30" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A356" s="27"/>
       <c r="B356" s="27" t="s">
         <v>1217</v>
@@ -18502,7 +18502,7 @@
       <c r="AA356" s="27"/>
       <c r="AB356" s="27"/>
     </row>
-    <row r="357" spans="1:28" s="30" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" s="30" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A357" s="27"/>
       <c r="B357" s="27" t="s">
         <v>1221</v>
@@ -18544,9 +18544,9 @@
       <c r="AA357" s="27"/>
       <c r="AB357" s="27"/>
     </row>
-    <row r="358" spans="1:28" s="30" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" s="30" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A358" s="27"/>
-      <c r="B358" s="82" t="s">
+      <c r="B358" s="76" t="s">
         <v>1223</v>
       </c>
       <c r="C358" s="27" t="s">
@@ -18586,7 +18586,7 @@
     </row>
     <row r="359" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="27"/>
-      <c r="B359" s="82"/>
+      <c r="B359" s="76"/>
       <c r="C359" s="27" t="s">
         <v>219</v>
       </c>
@@ -18622,7 +18622,7 @@
     </row>
     <row r="360" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="27"/>
-      <c r="B360" s="82" t="s">
+      <c r="B360" s="76" t="s">
         <v>1227</v>
       </c>
       <c r="C360" s="27" t="s">
@@ -18658,7 +18658,7 @@
     </row>
     <row r="361" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="27"/>
-      <c r="B361" s="82"/>
+      <c r="B361" s="76"/>
       <c r="C361" s="27" t="s">
         <v>533</v>
       </c>
@@ -18692,7 +18692,7 @@
     </row>
     <row r="362" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="27"/>
-      <c r="B362" s="82"/>
+      <c r="B362" s="76"/>
       <c r="C362" s="27" t="s">
         <v>534</v>
       </c>
@@ -18726,7 +18726,7 @@
     </row>
     <row r="363" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="27"/>
-      <c r="B363" s="82"/>
+      <c r="B363" s="76"/>
       <c r="C363" s="27" t="s">
         <v>535</v>
       </c>
@@ -18760,7 +18760,7 @@
     </row>
     <row r="364" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="27"/>
-      <c r="B364" s="82"/>
+      <c r="B364" s="76"/>
       <c r="C364" s="27" t="s">
         <v>536</v>
       </c>
@@ -18794,7 +18794,7 @@
     </row>
     <row r="365" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="27"/>
-      <c r="B365" s="82"/>
+      <c r="B365" s="76"/>
       <c r="C365" s="27" t="s">
         <v>537</v>
       </c>
@@ -18828,7 +18828,7 @@
     </row>
     <row r="366" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="27"/>
-      <c r="B366" s="82"/>
+      <c r="B366" s="76"/>
       <c r="C366" s="27" t="s">
         <v>538</v>
       </c>
@@ -18862,7 +18862,7 @@
     </row>
     <row r="367" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="27"/>
-      <c r="B367" s="82"/>
+      <c r="B367" s="76"/>
       <c r="C367" s="27" t="s">
         <v>539</v>
       </c>
@@ -18896,7 +18896,7 @@
     </row>
     <row r="368" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="27"/>
-      <c r="B368" s="82"/>
+      <c r="B368" s="76"/>
       <c r="C368" s="27" t="s">
         <v>540</v>
       </c>
@@ -18930,7 +18930,7 @@
     </row>
     <row r="369" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="27"/>
-      <c r="B369" s="82"/>
+      <c r="B369" s="76"/>
       <c r="C369" s="27" t="s">
         <v>541</v>
       </c>
@@ -18964,7 +18964,7 @@
     </row>
     <row r="370" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="27"/>
-      <c r="B370" s="82"/>
+      <c r="B370" s="76"/>
       <c r="C370" s="27" t="s">
         <v>542</v>
       </c>
@@ -18998,7 +18998,7 @@
     </row>
     <row r="371" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="27"/>
-      <c r="B371" s="82" t="s">
+      <c r="B371" s="76" t="s">
         <v>1228</v>
       </c>
       <c r="C371" s="27" t="s">
@@ -19034,7 +19034,7 @@
     </row>
     <row r="372" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="27"/>
-      <c r="B372" s="82"/>
+      <c r="B372" s="76"/>
       <c r="C372" s="27" t="s">
         <v>544</v>
       </c>
@@ -19066,7 +19066,7 @@
       <c r="AA372" s="27"/>
       <c r="AB372" s="27"/>
     </row>
-    <row r="373" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A373" s="27"/>
       <c r="B373" s="27" t="s">
         <v>1229</v>
@@ -19108,7 +19108,7 @@
       <c r="AA373" s="27"/>
       <c r="AB373" s="27"/>
     </row>
-    <row r="374" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A374" s="27"/>
       <c r="B374" s="27" t="s">
         <v>1231</v>
@@ -19148,7 +19148,7 @@
       <c r="AA374" s="27"/>
       <c r="AB374" s="27"/>
     </row>
-    <row r="375" spans="1:28" s="30" customFormat="1" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" s="30" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A375" s="27"/>
       <c r="B375" s="27" t="s">
         <v>1234</v>
@@ -19190,7 +19190,7 @@
     </row>
     <row r="376" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="27"/>
-      <c r="B376" s="82" t="s">
+      <c r="B376" s="76" t="s">
         <v>1236</v>
       </c>
       <c r="C376" s="27" t="s">
@@ -19226,7 +19226,7 @@
     </row>
     <row r="377" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="27"/>
-      <c r="B377" s="82"/>
+      <c r="B377" s="76"/>
       <c r="C377" s="27" t="s">
         <v>548</v>
       </c>
@@ -19258,7 +19258,7 @@
       <c r="AA377" s="27"/>
       <c r="AB377" s="27"/>
     </row>
-    <row r="378" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" s="30" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A378" s="27"/>
       <c r="B378" s="27"/>
       <c r="C378" s="27" t="s">
@@ -19300,7 +19300,7 @@
     </row>
     <row r="379" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="27"/>
-      <c r="B379" s="82" t="s">
+      <c r="B379" s="76" t="s">
         <v>1236</v>
       </c>
       <c r="C379" s="27" t="s">
@@ -19336,7 +19336,7 @@
     </row>
     <row r="380" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="27"/>
-      <c r="B380" s="82"/>
+      <c r="B380" s="76"/>
       <c r="C380" s="30" t="s">
         <v>551</v>
       </c>
@@ -19370,7 +19370,7 @@
     </row>
     <row r="381" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="27"/>
-      <c r="B381" s="82"/>
+      <c r="B381" s="76"/>
       <c r="C381" s="27" t="s">
         <v>552</v>
       </c>
@@ -19404,7 +19404,7 @@
     </row>
     <row r="382" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="27"/>
-      <c r="B382" s="82"/>
+      <c r="B382" s="76"/>
       <c r="C382" s="27" t="s">
         <v>553</v>
       </c>
@@ -19438,7 +19438,7 @@
     </row>
     <row r="383" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="27"/>
-      <c r="B383" s="82" t="s">
+      <c r="B383" s="76" t="s">
         <v>1238</v>
       </c>
       <c r="C383" s="27" t="s">
@@ -19474,7 +19474,7 @@
     </row>
     <row r="384" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="27"/>
-      <c r="B384" s="82"/>
+      <c r="B384" s="76"/>
       <c r="C384" s="27" t="s">
         <v>555</v>
       </c>
@@ -19508,7 +19508,7 @@
     </row>
     <row r="385" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="27"/>
-      <c r="B385" s="82"/>
+      <c r="B385" s="76"/>
       <c r="C385" s="27" t="s">
         <v>556</v>
       </c>
@@ -19542,7 +19542,7 @@
     </row>
     <row r="386" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="27"/>
-      <c r="B386" s="82"/>
+      <c r="B386" s="76"/>
       <c r="C386" s="27" t="s">
         <v>557</v>
       </c>
@@ -19574,7 +19574,7 @@
       <c r="AA386" s="27"/>
       <c r="AB386" s="27"/>
     </row>
-    <row r="387" spans="1:28" s="30" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:28" s="30" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A387" s="27"/>
       <c r="B387" s="27" t="s">
         <v>1239</v>
@@ -19618,7 +19618,7 @@
     </row>
     <row r="388" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="27"/>
-      <c r="B388" s="82" t="s">
+      <c r="B388" s="76" t="s">
         <v>1238</v>
       </c>
       <c r="C388" s="27" t="s">
@@ -19654,7 +19654,7 @@
     </row>
     <row r="389" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="27"/>
-      <c r="B389" s="82"/>
+      <c r="B389" s="76"/>
       <c r="C389" s="27" t="s">
         <v>560</v>
       </c>
@@ -19688,7 +19688,7 @@
     </row>
     <row r="390" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="27"/>
-      <c r="B390" s="82"/>
+      <c r="B390" s="76"/>
       <c r="C390" s="27" t="s">
         <v>561</v>
       </c>
@@ -19722,7 +19722,7 @@
     </row>
     <row r="391" spans="1:28" s="30" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="27"/>
-      <c r="B391" s="82"/>
+      <c r="B391" s="76"/>
       <c r="C391" s="27" t="s">
         <v>562</v>
       </c>
@@ -19868,7 +19868,7 @@
       <c r="AA394" s="44"/>
       <c r="AB394" s="44"/>
     </row>
-    <row r="395" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:28" s="45" customFormat="1" ht="237.6" x14ac:dyDescent="0.25">
       <c r="A395" s="44"/>
       <c r="B395" s="44"/>
       <c r="C395" s="44" t="s">
@@ -19946,7 +19946,7 @@
       <c r="AA396" s="44"/>
       <c r="AB396" s="44"/>
     </row>
-    <row r="397" spans="1:28" s="45" customFormat="1" ht="264" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A397" s="44"/>
       <c r="B397" s="44"/>
       <c r="C397" s="44" t="s">
@@ -20018,7 +20018,7 @@
       <c r="AA398" s="44"/>
       <c r="AB398" s="44"/>
     </row>
-    <row r="399" spans="1:28" s="45" customFormat="1" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A399" s="44"/>
       <c r="B399" s="44"/>
       <c r="C399" s="44" t="s">
@@ -20310,7 +20310,7 @@
       <c r="AA406" s="44"/>
       <c r="AB406" s="44"/>
     </row>
-    <row r="407" spans="1:28" s="45" customFormat="1" ht="290.39999999999998" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A407" s="44"/>
       <c r="B407" s="44"/>
       <c r="C407" s="44" t="s">
@@ -20492,7 +20492,7 @@
       <c r="AA411" s="44"/>
       <c r="AB411" s="44"/>
     </row>
-    <row r="412" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:28" s="45" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A412" s="44"/>
       <c r="B412" s="44"/>
       <c r="C412" s="44" t="s">
@@ -20568,7 +20568,7 @@
       <c r="AA413" s="44"/>
       <c r="AB413" s="44"/>
     </row>
-    <row r="414" spans="1:28" s="45" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:28" s="45" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A414" s="44"/>
       <c r="B414" s="44"/>
       <c r="C414" s="44" t="s">
@@ -20680,7 +20680,7 @@
       <c r="AA416" s="44"/>
       <c r="AB416" s="44"/>
     </row>
-    <row r="417" spans="1:28" s="45" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A417" s="44"/>
       <c r="B417" s="47"/>
       <c r="C417" s="44" t="s">
@@ -20792,7 +20792,7 @@
       <c r="AA419" s="44"/>
       <c r="AB419" s="44"/>
     </row>
-    <row r="420" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:28" s="45" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A420" s="44"/>
       <c r="B420" s="44"/>
       <c r="C420" s="44" t="s">
@@ -20900,7 +20900,7 @@
       <c r="AA422" s="44"/>
       <c r="AB422" s="44"/>
     </row>
-    <row r="423" spans="1:28" s="45" customFormat="1" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A423" s="44"/>
       <c r="B423" s="44"/>
       <c r="C423" s="44" t="s">
@@ -20944,7 +20944,7 @@
       <c r="AA423" s="44"/>
       <c r="AB423" s="44"/>
     </row>
-    <row r="424" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:28" s="45" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A424" s="44"/>
       <c r="B424" s="44"/>
       <c r="C424" s="44" t="s">
@@ -21052,7 +21052,7 @@
       <c r="AA426" s="44"/>
       <c r="AB426" s="44"/>
     </row>
-    <row r="427" spans="1:28" s="45" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A427" s="44"/>
       <c r="B427" s="44"/>
       <c r="C427" s="44" t="s">
@@ -21096,7 +21096,7 @@
       <c r="AA427" s="44"/>
       <c r="AB427" s="44"/>
     </row>
-    <row r="428" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:28" s="45" customFormat="1" ht="224.4" x14ac:dyDescent="0.25">
       <c r="A428" s="44"/>
       <c r="B428" s="44"/>
       <c r="C428" s="44" t="s">
@@ -21140,7 +21140,7 @@
       <c r="AA428" s="44"/>
       <c r="AB428" s="44"/>
     </row>
-    <row r="429" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:28" s="45" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A429" s="44"/>
       <c r="B429" s="44"/>
       <c r="C429" s="44" t="s">
@@ -21184,7 +21184,7 @@
       <c r="AA429" s="44"/>
       <c r="AB429" s="44"/>
     </row>
-    <row r="430" spans="1:28" s="45" customFormat="1" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A430" s="44"/>
       <c r="B430" s="44"/>
       <c r="C430" s="44" t="s">
@@ -21228,7 +21228,7 @@
       <c r="AA430" s="44"/>
       <c r="AB430" s="44"/>
     </row>
-    <row r="431" spans="1:28" s="45" customFormat="1" ht="369.6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A431" s="44"/>
       <c r="B431" s="44"/>
       <c r="C431" s="44" t="s">
@@ -21272,7 +21272,7 @@
       <c r="AA431" s="44"/>
       <c r="AB431" s="44"/>
     </row>
-    <row r="432" spans="1:28" s="45" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A432" s="44"/>
       <c r="B432" s="44"/>
       <c r="C432" s="44" t="s">
@@ -21316,7 +21316,7 @@
       <c r="AA432" s="44"/>
       <c r="AB432" s="44"/>
     </row>
-    <row r="433" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:28" s="45" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A433" s="44"/>
       <c r="B433" s="44"/>
       <c r="C433" s="44" t="s">
@@ -21360,7 +21360,7 @@
       <c r="AA433" s="44"/>
       <c r="AB433" s="44"/>
     </row>
-    <row r="434" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:28" s="45" customFormat="1" ht="198" x14ac:dyDescent="0.25">
       <c r="A434" s="44"/>
       <c r="B434" s="44"/>
       <c r="C434" s="44" t="s">
@@ -21404,7 +21404,7 @@
       <c r="AA434" s="44"/>
       <c r="AB434" s="44"/>
     </row>
-    <row r="435" spans="1:28" s="45" customFormat="1" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A435" s="44"/>
       <c r="B435" s="44"/>
       <c r="C435" s="44" t="s">
@@ -21448,7 +21448,7 @@
       <c r="AA435" s="44"/>
       <c r="AB435" s="44"/>
     </row>
-    <row r="436" spans="1:28" s="45" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A436" s="44"/>
       <c r="B436" s="44"/>
       <c r="C436" s="44" t="s">
@@ -21492,7 +21492,7 @@
       <c r="AA436" s="44"/>
       <c r="AB436" s="44"/>
     </row>
-    <row r="437" spans="1:28" s="45" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A437" s="44"/>
       <c r="B437" s="44"/>
       <c r="C437" s="44" t="s">
@@ -21536,7 +21536,7 @@
       <c r="AA437" s="44"/>
       <c r="AB437" s="44"/>
     </row>
-    <row r="438" spans="1:28" s="45" customFormat="1" ht="343.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:28" s="45" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A438" s="44"/>
       <c r="B438" s="44"/>
       <c r="C438" s="44" t="s">
@@ -21580,7 +21580,7 @@
       <c r="AA438" s="44"/>
       <c r="AB438" s="44"/>
     </row>
-    <row r="439" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:28" s="45" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A439" s="44"/>
       <c r="B439" s="44"/>
       <c r="C439" s="44" t="s">
@@ -21624,7 +21624,7 @@
       <c r="AA439" s="44"/>
       <c r="AB439" s="44"/>
     </row>
-    <row r="440" spans="1:28" s="45" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A440" s="44"/>
       <c r="B440" s="44"/>
       <c r="C440" s="44" t="s">
@@ -21668,7 +21668,7 @@
       <c r="AA440" s="44"/>
       <c r="AB440" s="44"/>
     </row>
-    <row r="441" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:28" s="45" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A441" s="44"/>
       <c r="B441" s="44"/>
       <c r="C441" s="44" t="s">
@@ -21712,7 +21712,7 @@
       <c r="AA441" s="44"/>
       <c r="AB441" s="44"/>
     </row>
-    <row r="442" spans="1:28" s="45" customFormat="1" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A442" s="44"/>
       <c r="B442" s="44"/>
       <c r="C442" s="44" t="s">
@@ -21756,7 +21756,7 @@
       <c r="AA442" s="44"/>
       <c r="AB442" s="44"/>
     </row>
-    <row r="443" spans="1:28" s="45" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A443" s="44"/>
       <c r="B443" s="44"/>
       <c r="C443" s="44" t="s">
@@ -21800,7 +21800,7 @@
       <c r="AA443" s="44"/>
       <c r="AB443" s="44"/>
     </row>
-    <row r="444" spans="1:28" s="45" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A444" s="44"/>
       <c r="B444" s="44"/>
       <c r="C444" s="44" t="s">
@@ -21844,7 +21844,7 @@
       <c r="AA444" s="44"/>
       <c r="AB444" s="44"/>
     </row>
-    <row r="445" spans="1:28" s="45" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A445" s="44"/>
       <c r="B445" s="44"/>
       <c r="C445" s="44" t="s">
@@ -21888,7 +21888,7 @@
       <c r="AA445" s="44"/>
       <c r="AB445" s="44"/>
     </row>
-    <row r="446" spans="1:28" s="45" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A446" s="44"/>
       <c r="B446" s="44"/>
       <c r="C446" s="44" t="s">
@@ -21932,7 +21932,7 @@
       <c r="AA446" s="44"/>
       <c r="AB446" s="44"/>
     </row>
-    <row r="447" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:28" s="45" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A447" s="44"/>
       <c r="B447" s="44"/>
       <c r="C447" s="44" t="s">
@@ -21976,7 +21976,7 @@
       <c r="AA447" s="44"/>
       <c r="AB447" s="44"/>
     </row>
-    <row r="448" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:28" s="45" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A448" s="44"/>
       <c r="B448" s="44"/>
       <c r="C448" s="44" t="s">
@@ -22020,7 +22020,7 @@
       <c r="AA448" s="44"/>
       <c r="AB448" s="44"/>
     </row>
-    <row r="449" spans="1:28" s="45" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A449" s="44"/>
       <c r="B449" s="44"/>
       <c r="C449" s="44" t="s">
@@ -22064,7 +22064,7 @@
       <c r="AA449" s="44"/>
       <c r="AB449" s="44"/>
     </row>
-    <row r="450" spans="1:28" s="45" customFormat="1" ht="369.6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:28" s="45" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A450" s="44"/>
       <c r="B450" s="44"/>
       <c r="C450" s="44" t="s">
@@ -22108,7 +22108,7 @@
       <c r="AA450" s="44"/>
       <c r="AB450" s="44"/>
     </row>
-    <row r="451" spans="1:28" s="45" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A451" s="44"/>
       <c r="B451" s="44"/>
       <c r="C451" s="44" t="s">
@@ -22152,7 +22152,7 @@
       <c r="AA451" s="44"/>
       <c r="AB451" s="44"/>
     </row>
-    <row r="452" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:28" s="45" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A452" s="44"/>
       <c r="B452" s="44"/>
       <c r="C452" s="44" t="s">
@@ -22196,7 +22196,7 @@
       <c r="AA452" s="44"/>
       <c r="AB452" s="44"/>
     </row>
-    <row r="453" spans="1:28" s="45" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A453" s="44"/>
       <c r="B453" s="44"/>
       <c r="C453" s="44" t="s">
@@ -22240,7 +22240,7 @@
       <c r="AA453" s="44"/>
       <c r="AB453" s="44"/>
     </row>
-    <row r="454" spans="1:28" s="45" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A454" s="44"/>
       <c r="B454" s="44"/>
       <c r="C454" s="44" t="s">
@@ -22284,7 +22284,7 @@
       <c r="AA454" s="44"/>
       <c r="AB454" s="44"/>
     </row>
-    <row r="455" spans="1:28" s="45" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A455" s="44"/>
       <c r="B455" s="44"/>
       <c r="C455" s="44" t="s">
@@ -22328,7 +22328,7 @@
       <c r="AA455" s="44"/>
       <c r="AB455" s="44"/>
     </row>
-    <row r="456" spans="1:28" s="45" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A456" s="44"/>
       <c r="B456" s="44"/>
       <c r="C456" s="44" t="s">
@@ -22372,7 +22372,7 @@
       <c r="AA456" s="44"/>
       <c r="AB456" s="44"/>
     </row>
-    <row r="457" spans="1:28" s="45" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A457" s="44"/>
       <c r="B457" s="44"/>
       <c r="C457" s="44" t="s">
@@ -22484,7 +22484,7 @@
       <c r="AA459" s="44"/>
       <c r="AB459" s="44"/>
     </row>
-    <row r="460" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:28" s="45" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A460" s="44"/>
       <c r="B460" s="44"/>
       <c r="C460" s="44" t="s">
@@ -22556,7 +22556,7 @@
       <c r="AA461" s="44"/>
       <c r="AB461" s="44"/>
     </row>
-    <row r="462" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:28" s="45" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A462" s="44"/>
       <c r="B462" s="44"/>
       <c r="C462" s="44" t="s">
@@ -23484,7 +23484,7 @@
       <c r="AA488" s="44"/>
       <c r="AB488" s="44"/>
     </row>
-    <row r="489" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:28" s="45" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A489" s="44"/>
       <c r="B489" s="44"/>
       <c r="C489" s="44" t="s">
@@ -26538,7 +26538,7 @@
       <c r="AA576" s="44"/>
       <c r="AB576" s="44"/>
     </row>
-    <row r="577" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:28" s="45" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A577" s="44"/>
       <c r="B577" s="44"/>
       <c r="C577" s="22" t="s">
@@ -27248,7 +27248,7 @@
       <c r="AA596" s="44"/>
       <c r="AB596" s="44"/>
     </row>
-    <row r="597" spans="1:28" s="45" customFormat="1" ht="290.39999999999998" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A597" s="44"/>
       <c r="B597" s="44"/>
       <c r="C597" s="22" t="s">
@@ -27292,7 +27292,7 @@
       <c r="AA597" s="44"/>
       <c r="AB597" s="44"/>
     </row>
-    <row r="598" spans="1:28" s="45" customFormat="1" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A598" s="44"/>
       <c r="B598" s="44"/>
       <c r="C598" s="22" t="s">
@@ -27336,7 +27336,7 @@
       <c r="AA598" s="44"/>
       <c r="AB598" s="44"/>
     </row>
-    <row r="599" spans="1:28" s="45" customFormat="1" ht="290.39999999999998" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A599" s="44"/>
       <c r="B599" s="44"/>
       <c r="C599" s="22" t="s">
@@ -27380,7 +27380,7 @@
       <c r="AA599" s="44"/>
       <c r="AB599" s="44"/>
     </row>
-    <row r="600" spans="1:28" s="45" customFormat="1" ht="369.6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A600" s="44"/>
       <c r="B600" s="44"/>
       <c r="C600" s="22" t="s">
@@ -27874,7 +27874,7 @@
       <c r="AA613" s="44"/>
       <c r="AB613" s="44"/>
     </row>
-    <row r="614" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:28" s="45" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A614" s="44"/>
       <c r="B614" s="44"/>
       <c r="C614" s="25" t="s">
@@ -27954,7 +27954,7 @@
       <c r="AA615" s="44"/>
       <c r="AB615" s="44"/>
     </row>
-    <row r="616" spans="1:28" s="45" customFormat="1" ht="132" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A616" s="44"/>
       <c r="B616" s="44"/>
       <c r="C616" s="22" t="s">
@@ -28024,7 +28024,7 @@
       <c r="AA617" s="44"/>
       <c r="AB617" s="44"/>
     </row>
-    <row r="618" spans="1:28" s="45" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A618" s="44"/>
       <c r="B618" s="44"/>
       <c r="C618" s="22" t="s">
@@ -28066,7 +28066,7 @@
       <c r="AA618" s="44"/>
       <c r="AB618" s="44"/>
     </row>
-    <row r="619" spans="1:28" s="45" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A619" s="44"/>
       <c r="B619" s="44"/>
       <c r="C619" s="22" t="s">
@@ -28146,7 +28146,7 @@
       <c r="AA620" s="44"/>
       <c r="AB620" s="44"/>
     </row>
-    <row r="621" spans="1:28" s="45" customFormat="1" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A621" s="44"/>
       <c r="B621" s="44"/>
       <c r="C621" s="22" t="s">
@@ -28190,7 +28190,7 @@
       <c r="AA621" s="44"/>
       <c r="AB621" s="44"/>
     </row>
-    <row r="622" spans="1:28" s="45" customFormat="1" ht="290.39999999999998" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:28" s="45" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A622" s="44"/>
       <c r="B622" s="44"/>
       <c r="C622" s="22" t="s">
@@ -28268,7 +28268,7 @@
       <c r="AA623" s="44"/>
       <c r="AB623" s="44"/>
     </row>
-    <row r="624" spans="1:28" s="45" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A624" s="44"/>
       <c r="B624" s="44"/>
       <c r="C624" s="22" t="s">
@@ -28346,7 +28346,7 @@
       <c r="AA625" s="44"/>
       <c r="AB625" s="44"/>
     </row>
-    <row r="626" spans="1:28" s="45" customFormat="1" ht="132" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:28" s="45" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A626" s="44"/>
       <c r="B626" s="44"/>
       <c r="C626" s="22" t="s">
@@ -28662,7 +28662,7 @@
       <c r="AA634" s="44"/>
       <c r="AB634" s="44"/>
     </row>
-    <row r="635" spans="1:28" s="45" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:28" s="45" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A635" s="44"/>
       <c r="B635" s="44"/>
       <c r="C635" s="22" t="s">
@@ -28740,7 +28740,7 @@
       <c r="AA636" s="44"/>
       <c r="AB636" s="44"/>
     </row>
-    <row r="637" spans="1:28" s="45" customFormat="1" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:28" s="45" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A637" s="44"/>
       <c r="B637" s="44"/>
       <c r="C637" s="22" t="s">
@@ -29334,7 +29334,7 @@
       <c r="AA653" s="44"/>
       <c r="AB653" s="44"/>
     </row>
-    <row r="654" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:28" s="45" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A654" s="44"/>
       <c r="B654" s="44"/>
       <c r="C654" s="25" t="s">
@@ -29408,7 +29408,7 @@
       <c r="AA655" s="44"/>
       <c r="AB655" s="44"/>
     </row>
-    <row r="656" spans="1:28" s="45" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:28" s="45" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A656" s="44"/>
       <c r="B656" s="44"/>
       <c r="C656" s="22" t="s">
@@ -29516,7 +29516,7 @@
       <c r="AA658" s="44"/>
       <c r="AB658" s="44"/>
     </row>
-    <row r="659" spans="1:28" s="45" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A659" s="44"/>
       <c r="B659" s="44"/>
       <c r="C659" s="25" t="s">
@@ -29560,7 +29560,7 @@
       <c r="AA659" s="44"/>
       <c r="AB659" s="44"/>
     </row>
-    <row r="660" spans="1:28" s="45" customFormat="1" ht="343.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:28" s="45" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A660" s="44"/>
       <c r="B660" s="44"/>
       <c r="C660" s="25" t="s">
@@ -29604,7 +29604,7 @@
       <c r="AA660" s="44"/>
       <c r="AB660" s="44"/>
     </row>
-    <row r="661" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:28" s="45" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A661" s="44"/>
       <c r="B661" s="44"/>
       <c r="C661" s="22" t="s">
@@ -29678,7 +29678,7 @@
       <c r="AA662" s="44"/>
       <c r="AB662" s="44"/>
     </row>
-    <row r="663" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:28" s="45" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A663" s="44"/>
       <c r="B663" s="44"/>
       <c r="C663" s="22" t="s">
@@ -29756,7 +29756,7 @@
       <c r="AA664" s="44"/>
       <c r="AB664" s="44"/>
     </row>
-    <row r="665" spans="1:28" s="45" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:28" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A665" s="44"/>
       <c r="B665" s="44"/>
       <c r="C665" s="25" t="s">
@@ -40414,59 +40414,66 @@
   </sheetData>
   <autoFilter ref="H1:H1018"/>
   <mergeCells count="137">
-    <mergeCell ref="B371:B372"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="B379:B382"/>
-    <mergeCell ref="B383:B386"/>
-    <mergeCell ref="B388:B391"/>
-    <mergeCell ref="B327:B329"/>
-    <mergeCell ref="E327:E329"/>
-    <mergeCell ref="B335:B348"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="B360:B370"/>
-    <mergeCell ref="F281:F283"/>
-    <mergeCell ref="B284:B317"/>
-    <mergeCell ref="B320:B326"/>
-    <mergeCell ref="E320:E326"/>
-    <mergeCell ref="F320:F326"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="B264:B270"/>
-    <mergeCell ref="E264:E270"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="E281:E283"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="B245:B250"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="E259:E260"/>
-    <mergeCell ref="F177:F183"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="B190:B198"/>
-    <mergeCell ref="B199:B211"/>
-    <mergeCell ref="E165:E167"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="B177:B183"/>
-    <mergeCell ref="E177:E183"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="D165:D167"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="E143:E145"/>
-    <mergeCell ref="F143:F145"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="A2:A32"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="E50:E53"/>
     <mergeCell ref="B124:B125"/>
     <mergeCell ref="E124:E125"/>
     <mergeCell ref="F124:F125"/>
@@ -40491,66 +40498,59 @@
     <mergeCell ref="F103:F105"/>
     <mergeCell ref="F100:F102"/>
     <mergeCell ref="F97:F99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A2:A32"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="E143:E145"/>
+    <mergeCell ref="F143:F145"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="B177:B183"/>
+    <mergeCell ref="E177:E183"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="D165:D167"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="B245:B250"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="E259:E260"/>
+    <mergeCell ref="F177:F183"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="B190:B198"/>
+    <mergeCell ref="B199:B211"/>
+    <mergeCell ref="F281:F283"/>
+    <mergeCell ref="B284:B317"/>
+    <mergeCell ref="B320:B326"/>
+    <mergeCell ref="E320:E326"/>
+    <mergeCell ref="F320:F326"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="B264:B270"/>
+    <mergeCell ref="E264:E270"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="E281:E283"/>
+    <mergeCell ref="B371:B372"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="B379:B382"/>
+    <mergeCell ref="B383:B386"/>
+    <mergeCell ref="B388:B391"/>
+    <mergeCell ref="B327:B329"/>
+    <mergeCell ref="E327:E329"/>
+    <mergeCell ref="B335:B348"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="B360:B370"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H666:H745">
